--- a/data/trans_orig/P42B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300F0119-4310-4567-BD4D-4E22D4A43930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{108A010D-1BA0-4BF9-8E2F-22B76F2A4A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0E45AD70-B9A9-423C-9C80-BDA1097A3580}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E340F39-AFE1-416B-BB36-9B8ADAEF7596}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="515">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>11,05%</t>
+    <t>13,03%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -104,10 +104,10 @@
     <t>72,94%</t>
   </si>
   <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -116,7 +116,7 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>12,6%</t>
+    <t>14,39%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -125,10 +125,10 @@
     <t>19,5%</t>
   </si>
   <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1444 +140,1450 @@
     <t>1,06%</t>
   </si>
   <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1FB7D4-6F8B-446B-BD53-308B0329B801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B3B71-BFB0-46A3-8660-98D47EAF7456}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2618,13 +2624,13 @@
         <v>77574</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -2633,13 +2639,13 @@
         <v>77574</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,7 +2679,7 @@
         <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2688,7 +2694,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2722,13 @@
         <v>9551</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2731,13 +2737,13 @@
         <v>9551</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2797,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2822,7 +2828,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2837,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2871,13 @@
         <v>1978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2880,13 +2886,13 @@
         <v>1978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2920,13 @@
         <v>2941</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2929,13 +2935,13 @@
         <v>2941</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2969,13 @@
         <v>34837</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2978,13 +2984,13 @@
         <v>34837</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3018,13 @@
         <v>1000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3027,13 +3033,13 @@
         <v>1000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3067,13 @@
         <v>3859</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3076,13 +3082,13 @@
         <v>3859</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,7 +3142,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3167,7 +3173,7 @@
         <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3182,7 +3188,7 @@
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,13 +3216,13 @@
         <v>2688</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3225,13 +3231,13 @@
         <v>2688</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3265,13 @@
         <v>2766</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -3274,13 +3280,13 @@
         <v>2766</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3314,13 @@
         <v>63820</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -3323,13 +3329,13 @@
         <v>63820</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3357,13 +3363,13 @@
         <v>2527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3372,13 +3378,13 @@
         <v>2527</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,13 +3412,13 @@
         <v>12873</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -3421,13 +3427,13 @@
         <v>12873</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3481,7 +3487,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3512,7 +3518,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3527,7 +3533,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3576,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3604,13 +3610,13 @@
         <v>1908</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3619,13 +3625,13 @@
         <v>1908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3659,13 @@
         <v>23936</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -3668,13 +3674,13 @@
         <v>23936</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3708,13 @@
         <v>2039</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3717,13 +3723,13 @@
         <v>2039</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3757,13 @@
         <v>3901</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3766,13 +3772,13 @@
         <v>3901</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,7 +3832,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3857,7 +3863,7 @@
         <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3872,7 +3878,7 @@
         <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3906,13 @@
         <v>1021</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3915,13 +3921,13 @@
         <v>1021</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3955,13 @@
         <v>2045</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3964,13 +3970,13 @@
         <v>2045</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +4004,13 @@
         <v>44216</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M42" s="7">
         <v>42</v>
@@ -4013,13 +4019,13 @@
         <v>44216</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,13 +4053,13 @@
         <v>2940</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -4062,13 +4068,13 @@
         <v>2940</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4102,13 @@
         <v>5297</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -4111,13 +4117,13 @@
         <v>5297</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,7 +4177,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4196,13 +4202,13 @@
         <v>976</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4211,13 +4217,13 @@
         <v>976</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4251,13 @@
         <v>2804</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -4260,13 +4266,13 @@
         <v>2804</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4300,13 @@
         <v>8535</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M48" s="7">
         <v>9</v>
@@ -4309,13 +4315,13 @@
         <v>8535</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4343,13 +4349,13 @@
         <v>90346</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M49" s="7">
         <v>89</v>
@@ -4358,13 +4364,13 @@
         <v>90346</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4398,13 @@
         <v>9948</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M50" s="7">
         <v>9</v>
@@ -4407,13 +4413,13 @@
         <v>9948</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4447,13 @@
         <v>19074</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M51" s="7">
         <v>19</v>
@@ -4456,13 +4462,13 @@
         <v>19074</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,7 +4522,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4541,13 +4547,13 @@
         <v>867</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4556,13 +4562,13 @@
         <v>867</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4596,13 @@
         <v>2297</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4605,13 +4611,13 @@
         <v>2297</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4645,13 @@
         <v>8372</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M55" s="7">
         <v>8</v>
@@ -4654,13 +4660,13 @@
         <v>8372</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4694,13 @@
         <v>108056</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M56" s="7">
         <v>103</v>
@@ -4703,13 +4709,13 @@
         <v>108056</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4743,13 @@
         <v>9997</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -4752,13 +4758,13 @@
         <v>9997</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4792,13 @@
         <v>26438</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K58" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M58" s="7">
         <v>25</v>
@@ -4801,13 +4807,13 @@
         <v>26438</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P58" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q58" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P58" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4892,13 @@
         <v>2823</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4901,13 +4907,13 @@
         <v>2823</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,13 +4941,13 @@
         <v>13836</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M61" s="7">
         <v>14</v>
@@ -4950,13 +4956,13 @@
         <v>13836</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4984,13 +4990,13 @@
         <v>30624</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M62" s="7">
         <v>31</v>
@@ -4999,13 +5005,13 @@
         <v>30624</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q62" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P62" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5039,13 @@
         <v>484313</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M63" s="7">
         <v>474</v>
@@ -5048,13 +5054,13 @@
         <v>484313</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5088,13 @@
         <v>30820</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M64" s="7">
         <v>27</v>
@@ -5097,13 +5103,13 @@
         <v>30820</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5137,13 @@
         <v>92098</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M65" s="7">
         <v>91</v>
@@ -5146,13 +5152,13 @@
         <v>92098</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,7 +5212,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5230,7 +5236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F736F2-206C-4E20-99C0-BEBB7AC51378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD71277-9F9C-4DEF-8FCD-5231ABC76B79}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5247,7 +5253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5684,13 +5690,13 @@
         <v>7008</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -5699,13 +5705,13 @@
         <v>7008</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5739,13 @@
         <v>2241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5748,13 +5754,13 @@
         <v>2241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5788,13 @@
         <v>4084</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5797,13 +5803,13 @@
         <v>4084</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5837,13 @@
         <v>354152</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>322</v>
@@ -5846,13 +5852,13 @@
         <v>354152</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5886,13 @@
         <v>14203</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -5895,13 +5901,13 @@
         <v>14203</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5935,13 @@
         <v>53774</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5944,13 +5950,13 @@
         <v>53774</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +6010,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6029,13 +6035,13 @@
         <v>3216</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6044,13 +6050,13 @@
         <v>3216</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6084,13 @@
         <v>984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6093,13 +6099,13 @@
         <v>984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6133,13 @@
         <v>1975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6142,13 +6148,13 @@
         <v>1975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6182,13 @@
         <v>192172</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -6191,13 +6197,13 @@
         <v>192172</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6231,13 @@
         <v>15292</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6240,13 +6246,13 @@
         <v>15292</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6280,13 @@
         <v>54148</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -6289,13 +6295,13 @@
         <v>54148</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,7 +6355,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6374,13 +6380,13 @@
         <v>12182</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6389,13 +6395,13 @@
         <v>12182</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6429,13 @@
         <v>13359</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -6438,13 +6444,13 @@
         <v>13359</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6478,13 @@
         <v>12202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -6487,13 +6493,13 @@
         <v>12202</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6527,13 @@
         <v>352054</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>321</v>
@@ -6536,13 +6542,13 @@
         <v>352054</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6570,13 +6576,13 @@
         <v>13804</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6585,13 +6591,13 @@
         <v>13804</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6625,13 @@
         <v>117318</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6634,13 +6640,13 @@
         <v>117318</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,7 +6700,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6725,7 +6731,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6740,7 +6746,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6780,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6789,7 +6795,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,7 +6829,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6838,7 +6844,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6872,13 @@
         <v>134112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>127</v>
@@ -6881,13 +6887,13 @@
         <v>134112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6921,13 @@
         <v>6815</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -6930,13 +6936,13 @@
         <v>6815</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +6970,13 @@
         <v>27471</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6979,13 +6985,13 @@
         <v>27471</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,7 +7045,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7064,13 +7070,13 @@
         <v>978</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7079,13 +7085,13 @@
         <v>978</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,13 +7119,13 @@
         <v>1056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7128,13 +7134,13 @@
         <v>1056</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>58</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,10 +7318,10 @@
         <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -7327,10 +7333,10 @@
         <v>225</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,7 +7390,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7409,13 +7415,13 @@
         <v>13096</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7424,13 +7430,13 @@
         <v>13096</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7458,13 +7464,13 @@
         <v>4179</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -7473,13 +7479,13 @@
         <v>4179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7513,13 @@
         <v>9255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -7522,13 +7528,13 @@
         <v>9255</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7562,13 @@
         <v>422217</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M49" s="7">
         <v>379</v>
@@ -7571,13 +7577,13 @@
         <v>422217</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7611,13 @@
         <v>22067</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="M50" s="7">
         <v>22</v>
@@ -7620,13 +7626,13 @@
         <v>22067</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>77</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7654,13 +7660,13 @@
         <v>88675</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M51" s="7">
         <v>82</v>
@@ -7669,13 +7675,13 @@
         <v>88675</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7729,7 +7735,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -7754,13 +7760,13 @@
         <v>7248</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -7769,13 +7775,13 @@
         <v>7248</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>241</v>
+        <v>158</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7809,13 @@
         <v>3277</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7818,13 +7824,13 @@
         <v>3277</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7858,13 @@
         <v>8254</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -7867,13 +7873,13 @@
         <v>8254</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7907,13 @@
         <v>360614</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M56" s="7">
         <v>331</v>
@@ -7916,13 +7922,13 @@
         <v>360614</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7956,13 @@
         <v>83855</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M57" s="7">
         <v>78</v>
@@ -7965,13 +7971,13 @@
         <v>83855</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>252</v>
+        <v>134</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8005,13 @@
         <v>110171</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M58" s="7">
         <v>102</v>
@@ -8014,13 +8020,13 @@
         <v>110171</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8105,13 @@
         <v>43730</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M60" s="7">
         <v>41</v>
@@ -8114,13 +8120,13 @@
         <v>43730</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8154,13 @@
         <v>25095</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M61" s="7">
         <v>24</v>
@@ -8163,13 +8169,13 @@
         <v>25095</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8203,13 @@
         <v>42969</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -8212,13 +8218,13 @@
         <v>42969</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8252,13 @@
         <v>1975725</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M63" s="7">
         <v>1810</v>
@@ -8261,13 +8267,13 @@
         <v>1975725</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8301,13 @@
         <v>161686</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M64" s="7">
         <v>150</v>
@@ -8310,13 +8316,13 @@
         <v>161686</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8350,13 @@
         <v>491062</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M65" s="7">
         <v>460</v>
@@ -8359,13 +8365,13 @@
         <v>491062</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8419,7 +8425,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +8449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB1E6DB-72AD-49EF-BCF3-43788E547F32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75918E45-E068-4FC1-97C6-50E7514FC48E}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8460,7 +8466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8580,13 +8586,13 @@
         <v>6968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8595,13 +8601,13 @@
         <v>6968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,13 +8635,13 @@
         <v>2909</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8644,13 +8650,13 @@
         <v>2909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,13 +8684,13 @@
         <v>4101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8693,13 +8699,13 @@
         <v>4101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,13 +8733,13 @@
         <v>164181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -8742,13 +8748,13 @@
         <v>164181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8776,13 +8782,13 @@
         <v>13148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8791,13 +8797,13 @@
         <v>13148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>33</v>
+        <v>287</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8831,13 @@
         <v>36462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -8840,13 +8846,13 @@
         <v>36462</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8925,13 +8931,13 @@
         <v>6197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8940,13 +8946,13 @@
         <v>6197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +8980,13 @@
         <v>3931</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8989,13 +8995,13 @@
         <v>3931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>63</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9023,13 +9029,13 @@
         <v>13968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -9038,13 +9044,13 @@
         <v>13968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,13 +9078,13 @@
         <v>341847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -9087,13 +9093,13 @@
         <v>341847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,13 +9127,13 @@
         <v>10910</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -9136,13 +9142,13 @@
         <v>10910</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9176,13 @@
         <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -9185,13 +9191,13 @@
         <v>23450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9245,7 +9251,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -9270,13 +9276,13 @@
         <v>13757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9285,13 +9291,13 @@
         <v>13757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,7 +9331,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9340,7 +9346,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9374,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -9383,13 +9389,13 @@
         <v>8284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9423,13 @@
         <v>216684</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -9432,13 +9438,13 @@
         <v>216684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>314</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9466,13 +9472,13 @@
         <v>7907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>317</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -9481,13 +9487,13 @@
         <v>7907</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,13 +9521,13 @@
         <v>27796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -9530,13 +9536,13 @@
         <v>27796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9590,7 +9596,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9615,13 +9621,13 @@
         <v>13019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -9630,13 +9636,13 @@
         <v>13019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9664,13 +9670,13 @@
         <v>4129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -9679,13 +9685,13 @@
         <v>4129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,13 +9719,13 @@
         <v>3119</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -9728,13 +9734,13 @@
         <v>3119</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9768,13 @@
         <v>200196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M28" s="7">
         <v>183</v>
@@ -9777,13 +9783,13 @@
         <v>200196</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9817,13 @@
         <v>7204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -9826,13 +9832,13 @@
         <v>7204</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9866,13 @@
         <v>54784</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -9875,13 +9881,13 @@
         <v>54784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>72</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9935,7 +9941,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9960,13 +9966,13 @@
         <v>1736</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>333</v>
+        <v>62</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -9975,13 +9981,13 @@
         <v>1736</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>333</v>
+        <v>62</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10015,7 +10021,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -10030,7 +10036,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,13 +10064,13 @@
         <v>5636</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -10073,13 +10079,13 @@
         <v>5636</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10107,13 +10113,13 @@
         <v>111813</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M35" s="7">
         <v>115</v>
@@ -10122,13 +10128,13 @@
         <v>111813</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10156,13 +10162,13 @@
         <v>5946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10171,13 +10177,13 @@
         <v>5946</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>66</v>
+        <v>344</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10211,13 @@
         <v>47961</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -10220,13 +10226,13 @@
         <v>47961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10280,7 +10286,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10305,13 +10311,13 @@
         <v>8339</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -10320,13 +10326,13 @@
         <v>8339</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>345</v>
+        <v>188</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>347</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10360,7 +10366,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -10375,7 +10381,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10403,13 +10409,13 @@
         <v>42916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" s="7">
         <v>40</v>
@@ -10418,13 +10424,13 @@
         <v>42916</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10452,13 +10458,13 @@
         <v>110985</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -10467,13 +10473,13 @@
         <v>110985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10501,13 +10507,13 @@
         <v>22192</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M43" s="7">
         <v>23</v>
@@ -10516,13 +10522,13 @@
         <v>22192</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10550,13 +10556,13 @@
         <v>21889</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M44" s="7">
         <v>21</v>
@@ -10565,13 +10571,13 @@
         <v>21889</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10625,7 +10631,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10650,13 +10656,13 @@
         <v>14257</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -10665,13 +10671,13 @@
         <v>14257</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P46" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="Q46" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,13 +10705,13 @@
         <v>2074</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>363</v>
+        <v>139</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -10714,13 +10720,13 @@
         <v>2074</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>363</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10748,13 +10754,13 @@
         <v>7050</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -10763,13 +10769,13 @@
         <v>7050</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10797,13 +10803,13 @@
         <v>439784</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M49" s="7">
         <v>413</v>
@@ -10812,13 +10818,13 @@
         <v>439784</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10846,13 +10852,13 @@
         <v>17978</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M50" s="7">
         <v>18</v>
@@ -10861,13 +10867,13 @@
         <v>17978</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10895,13 +10901,13 @@
         <v>57685</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M51" s="7">
         <v>54</v>
@@ -10910,13 +10916,13 @@
         <v>57685</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10970,7 +10976,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -10995,13 +11001,13 @@
         <v>6036</v>
       </c>
       <c r="J53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -11010,13 +11016,13 @@
         <v>6036</v>
       </c>
       <c r="O53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11044,13 +11050,13 @@
         <v>2038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -11059,13 +11065,13 @@
         <v>2038</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11093,13 +11099,13 @@
         <v>3702</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -11108,13 +11114,13 @@
         <v>3702</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>168</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11142,13 +11148,13 @@
         <v>494278</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M56" s="7">
         <v>453</v>
@@ -11157,13 +11163,13 @@
         <v>494278</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11191,13 +11197,13 @@
         <v>61851</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M57" s="7">
         <v>59</v>
@@ -11206,13 +11212,13 @@
         <v>61851</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -11240,13 +11246,13 @@
         <v>109359</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M58" s="7">
         <v>99</v>
@@ -11255,13 +11261,13 @@
         <v>109359</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -11340,13 +11346,13 @@
         <v>70309</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
       <c r="M60" s="7">
         <v>67</v>
@@ -11355,13 +11361,13 @@
         <v>70309</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>293</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>232</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11389,13 +11395,13 @@
         <v>15082</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M61" s="7">
         <v>15</v>
@@ -11404,13 +11410,13 @@
         <v>15082</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11438,13 +11444,13 @@
         <v>88776</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M62" s="7">
         <v>81</v>
@@ -11453,13 +11459,13 @@
         <v>88776</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11487,13 +11493,13 @@
         <v>2079768</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="M63" s="7">
         <v>1956</v>
@@ -11502,13 +11508,13 @@
         <v>2079768</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11536,13 +11542,13 @@
         <v>147136</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M64" s="7">
         <v>146</v>
@@ -11551,13 +11557,13 @@
         <v>147136</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11585,13 +11591,13 @@
         <v>379385</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M65" s="7">
         <v>362</v>
@@ -11600,13 +11606,13 @@
         <v>379385</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11660,7 +11666,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -11684,7 +11690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB26EF6-B9F4-470C-82A1-4701B329C5ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283221E-6981-4034-8C5F-184FF69533DF}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11701,7 +11707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11821,13 +11827,13 @@
         <v>478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -11836,13 +11842,13 @@
         <v>478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11876,7 +11882,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -11891,7 +11897,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11919,13 +11925,13 @@
         <v>439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11934,13 +11940,13 @@
         <v>439</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11968,13 +11974,13 @@
         <v>144883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -11983,13 +11989,13 @@
         <v>144883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12017,13 +12023,13 @@
         <v>418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -12032,13 +12038,13 @@
         <v>418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12066,13 +12072,13 @@
         <v>2504</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -12081,13 +12087,13 @@
         <v>2504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -12166,13 +12172,13 @@
         <v>85074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -12181,13 +12187,13 @@
         <v>85074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12215,13 +12221,13 @@
         <v>2320</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -12230,13 +12236,13 @@
         <v>2320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>417</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12264,13 +12270,13 @@
         <v>2001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -12279,13 +12285,13 @@
         <v>2001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>247</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12313,13 +12319,13 @@
         <v>194126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -12328,13 +12334,13 @@
         <v>194126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12362,13 +12368,13 @@
         <v>10927</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -12377,13 +12383,13 @@
         <v>10927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>418</v>
+        <v>155</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12411,13 +12417,13 @@
         <v>56845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -12426,13 +12432,13 @@
         <v>56845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12486,7 +12492,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -12511,13 +12517,13 @@
         <v>8316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -12526,13 +12532,13 @@
         <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12566,7 +12572,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -12581,7 +12587,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12609,13 +12615,13 @@
         <v>3158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -12624,13 +12630,13 @@
         <v>3158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12658,13 +12664,13 @@
         <v>140434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -12673,13 +12679,13 @@
         <v>140434</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12707,13 +12713,13 @@
         <v>2816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -12722,13 +12728,13 @@
         <v>2816</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12756,13 +12762,13 @@
         <v>36656</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -12771,13 +12777,13 @@
         <v>36656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12831,7 +12837,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -12856,13 +12862,13 @@
         <v>2487</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -12871,13 +12877,13 @@
         <v>2487</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12905,13 +12911,13 @@
         <v>6256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>438</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -12920,13 +12926,13 @@
         <v>6256</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12954,13 +12960,13 @@
         <v>8259</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>440</v>
+        <v>159</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -12969,13 +12975,13 @@
         <v>8259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>440</v>
+        <v>159</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -13003,13 +13009,13 @@
         <v>151993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -13018,13 +13024,13 @@
         <v>151993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13052,13 +13058,13 @@
         <v>11566</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -13067,13 +13073,13 @@
         <v>11566</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13101,13 +13107,13 @@
         <v>85829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -13116,13 +13122,13 @@
         <v>85829</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13176,7 +13182,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -13201,13 +13207,13 @@
         <v>1549</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -13216,13 +13222,13 @@
         <v>1549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13256,7 +13262,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -13271,7 +13277,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>260</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13299,13 +13305,13 @@
         <v>9768</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -13314,13 +13320,13 @@
         <v>9768</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13348,13 +13354,13 @@
         <v>124769</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M35" s="7">
         <v>276</v>
@@ -13363,13 +13369,13 @@
         <v>124769</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13397,13 +13403,13 @@
         <v>2016</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -13412,13 +13418,13 @@
         <v>2016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>457</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13446,13 +13452,13 @@
         <v>4153</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -13461,13 +13467,13 @@
         <v>4153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13521,7 +13527,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -13546,13 +13552,13 @@
         <v>5210</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -13561,13 +13567,13 @@
         <v>5210</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>364</v>
+        <v>217</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13595,13 +13601,13 @@
         <v>1419</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -13610,13 +13616,13 @@
         <v>1419</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13644,13 +13650,13 @@
         <v>552</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -13659,13 +13665,13 @@
         <v>552</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13693,13 +13699,13 @@
         <v>114237</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="M42" s="7">
         <v>223</v>
@@ -13708,13 +13714,13 @@
         <v>114237</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13742,13 +13748,13 @@
         <v>9930</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M43" s="7">
         <v>14</v>
@@ -13757,13 +13763,13 @@
         <v>9930</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>207</v>
+        <v>412</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13791,13 +13797,13 @@
         <v>15681</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -13806,13 +13812,13 @@
         <v>15681</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13866,7 +13872,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -13891,13 +13897,13 @@
         <v>15556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -13906,13 +13912,13 @@
         <v>15556</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13940,13 +13946,13 @@
         <v>2212</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>475</v>
+        <v>249</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -13955,13 +13961,13 @@
         <v>2212</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>246</v>
+        <v>376</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>475</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13989,13 +13995,13 @@
         <v>4074</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -14004,13 +14010,13 @@
         <v>4074</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>58</v>
+        <v>368</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14038,13 +14044,13 @@
         <v>330160</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="M49" s="7">
         <v>466</v>
@@ -14053,13 +14059,13 @@
         <v>330160</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14087,13 +14093,13 @@
         <v>6979</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -14102,13 +14108,13 @@
         <v>6979</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14136,13 +14142,13 @@
         <v>44097</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>486</v>
+        <v>25</v>
       </c>
       <c r="M51" s="7">
         <v>61</v>
@@ -14151,13 +14157,13 @@
         <v>44097</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>486</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14211,7 +14217,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -14236,13 +14242,13 @@
         <v>11635</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>489</v>
+        <v>66</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
@@ -14251,13 +14257,13 @@
         <v>11635</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>489</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14285,13 +14291,13 @@
         <v>662</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -14300,13 +14306,13 @@
         <v>662</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>490</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14337,10 +14343,10 @@
         <v>491</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>37</v>
+        <v>492</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M55" s="7">
         <v>70</v>
@@ -14352,10 +14358,10 @@
         <v>491</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>37</v>
+        <v>492</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14383,13 +14389,13 @@
         <v>275796</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
       <c r="M56" s="7">
         <v>356</v>
@@ -14398,13 +14404,13 @@
         <v>275796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14432,10 +14438,10 @@
         <v>20039</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>496</v>
+        <v>86</v>
       </c>
       <c r="L57" s="7" t="s">
         <v>497</v>
@@ -14447,10 +14453,10 @@
         <v>20039</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>495</v>
+        <v>397</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>496</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="7" t="s">
         <v>497</v>
@@ -14481,13 +14487,13 @@
         <v>94350</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>120</v>
+        <v>498</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M58" s="7">
         <v>126</v>
@@ -14496,13 +14502,13 @@
         <v>94350</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>120</v>
+        <v>498</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14581,13 +14587,13 @@
         <v>130305</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>502</v>
+        <v>114</v>
       </c>
       <c r="M60" s="7">
         <v>164</v>
@@ -14596,13 +14602,13 @@
         <v>130305</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>502</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14636,7 +14642,7 @@
         <v>504</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>476</v>
+        <v>295</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14651,7 +14657,7 @@
         <v>504</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>476</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14679,10 +14685,10 @@
         <v>74381</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="L62" s="7" t="s">
         <v>505</v>
@@ -14694,10 +14700,10 @@
         <v>74381</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>496</v>
+        <v>316</v>
       </c>
       <c r="Q62" s="7" t="s">
         <v>505</v>
@@ -14780,10 +14786,10 @@
         <v>509</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M64" s="7">
         <v>76</v>
@@ -14795,10 +14801,10 @@
         <v>509</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14826,13 +14832,13 @@
         <v>340115</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M65" s="7">
         <v>463</v>
@@ -14841,13 +14847,13 @@
         <v>340115</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14901,7 +14907,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{108A010D-1BA0-4BF9-8E2F-22B76F2A4A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60C90F7-363E-490B-8185-BB94B42902D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E340F39-AFE1-416B-BB36-9B8ADAEF7596}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2D5662D-E2F7-4E84-943D-E95003BA5386}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="512">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>10,3%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -104,1434 +104,1431 @@
     <t>72,94%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>Para realizar orientación/planificación familiar</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>Por algún problema ginecológico</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>Para realizar orientación/planificación familiar</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>Por algún problema ginecológico</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>8,78%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2015 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
     <t>6,39%</t>
   </si>
   <si>
@@ -1541,9 +1538,6 @@
     <t>17,8%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
     <t>6,21%</t>
   </si>
   <si>
@@ -1569,9 +1563,6 @@
   </si>
   <si>
     <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
   </si>
   <si>
     <t>3,97%</t>
@@ -1995,7 +1986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195B3B71-BFB0-46A3-8660-98D47EAF7456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0305F16C-01AE-491B-B9E7-D0B94E6B22D3}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2624,13 +2615,13 @@
         <v>77574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="7">
         <v>75</v>
@@ -2639,13 +2630,13 @@
         <v>77574</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,7 +2670,7 @@
         <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2694,7 +2685,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2722,13 +2713,13 @@
         <v>9551</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2737,13 +2728,13 @@
         <v>9551</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,7 +2788,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2828,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2843,7 +2834,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2862,13 @@
         <v>1978</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2886,13 +2877,13 @@
         <v>1978</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2911,13 @@
         <v>2941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2935,13 +2926,13 @@
         <v>2941</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2960,13 @@
         <v>34837</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -2984,13 +2975,13 @@
         <v>34837</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3009,13 @@
         <v>1000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3033,13 +3024,13 @@
         <v>1000</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3058,13 @@
         <v>3859</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3082,13 +3073,13 @@
         <v>3859</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,7 +3133,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3173,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3188,7 +3179,7 @@
         <v>13</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,13 +3207,13 @@
         <v>2688</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3231,13 +3222,13 @@
         <v>2688</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3256,13 @@
         <v>2766</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -3280,13 +3271,13 @@
         <v>2766</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3305,13 @@
         <v>63820</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M28" s="7">
         <v>67</v>
@@ -3329,13 +3320,13 @@
         <v>63820</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,13 +3354,13 @@
         <v>2527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3378,13 +3369,13 @@
         <v>2527</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,10 +4096,10 @@
         <v>100</v>
       </c>
       <c r="K44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -4120,10 +4111,10 @@
         <v>100</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,7 +4168,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4202,13 +4193,13 @@
         <v>976</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4217,13 +4208,13 @@
         <v>976</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4242,13 @@
         <v>2804</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -4266,13 +4257,13 @@
         <v>2804</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4291,13 @@
         <v>8535</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M48" s="7">
         <v>9</v>
@@ -4315,13 +4306,13 @@
         <v>8535</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4340,13 @@
         <v>90346</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M49" s="7">
         <v>89</v>
@@ -4364,13 +4355,13 @@
         <v>90346</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4389,13 @@
         <v>9948</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M50" s="7">
         <v>9</v>
@@ -4413,13 +4404,13 @@
         <v>9948</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4438,13 @@
         <v>19074</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M51" s="7">
         <v>19</v>
@@ -4462,13 +4453,13 @@
         <v>19074</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,7 +4513,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4547,13 +4538,13 @@
         <v>867</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4562,13 +4553,13 @@
         <v>867</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4587,13 @@
         <v>2297</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4611,13 +4602,13 @@
         <v>2297</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4636,13 @@
         <v>8372</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M55" s="7">
         <v>8</v>
@@ -4660,13 +4651,13 @@
         <v>8372</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4685,13 @@
         <v>108056</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M56" s="7">
         <v>103</v>
@@ -4709,13 +4700,13 @@
         <v>108056</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4734,13 @@
         <v>9997</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="L57" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -4758,13 +4749,13 @@
         <v>9997</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4783,13 @@
         <v>26438</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="L58" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L58" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M58" s="7">
         <v>25</v>
@@ -4807,13 +4798,13 @@
         <v>26438</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P58" s="7" t="s">
+      <c r="Q58" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q58" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4883,13 @@
         <v>2823</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4907,13 +4898,13 @@
         <v>2823</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,13 +4932,13 @@
         <v>13836</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M61" s="7">
         <v>14</v>
@@ -4956,13 +4947,13 @@
         <v>13836</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +4981,13 @@
         <v>30624</v>
       </c>
       <c r="J62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="L62" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M62" s="7">
         <v>31</v>
@@ -5005,13 +4996,13 @@
         <v>30624</v>
       </c>
       <c r="O62" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P62" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P62" s="7" t="s">
+      <c r="Q62" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q62" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5030,13 @@
         <v>484313</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M63" s="7">
         <v>474</v>
@@ -5054,13 +5045,13 @@
         <v>484313</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5079,13 @@
         <v>30820</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M64" s="7">
         <v>27</v>
@@ -5103,13 +5094,13 @@
         <v>30820</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5128,13 @@
         <v>92098</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M65" s="7">
         <v>91</v>
@@ -5152,13 +5143,13 @@
         <v>92098</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5212,7 +5203,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD71277-9F9C-4DEF-8FCD-5231ABC76B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5CEFEC-1E22-4F76-8824-E598F9A2A835}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5253,7 +5244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5690,13 +5681,13 @@
         <v>7008</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -5705,13 +5696,13 @@
         <v>7008</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5730,13 @@
         <v>2241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5754,13 +5745,13 @@
         <v>2241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5779,13 @@
         <v>4084</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5803,13 +5794,13 @@
         <v>4084</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5828,13 @@
         <v>354152</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>322</v>
@@ -5852,13 +5843,13 @@
         <v>354152</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5877,13 @@
         <v>14203</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -5901,13 +5892,13 @@
         <v>14203</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,13 +5926,13 @@
         <v>53774</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5950,13 +5941,13 @@
         <v>53774</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +6001,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -6035,13 +6026,13 @@
         <v>3216</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6050,13 +6041,13 @@
         <v>3216</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6084,13 +6075,13 @@
         <v>984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6099,13 +6090,13 @@
         <v>984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6124,13 @@
         <v>1975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6148,13 +6139,13 @@
         <v>1975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6173,13 @@
         <v>192172</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -6197,13 +6188,13 @@
         <v>192172</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6222,13 @@
         <v>15292</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6246,13 +6237,13 @@
         <v>15292</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6271,13 @@
         <v>54148</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -6295,13 +6286,13 @@
         <v>54148</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,7 +6346,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6380,13 +6371,13 @@
         <v>12182</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6395,13 +6386,13 @@
         <v>12182</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6420,13 @@
         <v>13359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -6444,13 +6435,13 @@
         <v>13359</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6469,13 @@
         <v>12202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -6493,13 +6484,13 @@
         <v>12202</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6518,13 @@
         <v>352054</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M28" s="7">
         <v>321</v>
@@ -6542,13 +6533,13 @@
         <v>352054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6567,13 @@
         <v>13804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6591,13 +6582,13 @@
         <v>13804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,13 +6616,13 @@
         <v>117318</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6640,13 +6631,13 @@
         <v>117318</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6731,7 +6722,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6746,7 +6737,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6771,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6795,7 +6786,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,7 +6820,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6844,7 +6835,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,10 +6866,10 @@
         <v>94</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M35" s="7">
         <v>127</v>
@@ -6890,10 +6881,10 @@
         <v>94</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +6912,13 @@
         <v>6815</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -6936,13 +6927,13 @@
         <v>6815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6961,13 @@
         <v>27471</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6985,13 +6976,13 @@
         <v>27471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,13 +7061,13 @@
         <v>978</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7085,13 +7076,13 @@
         <v>978</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7110,13 @@
         <v>1056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7134,13 +7125,13 @@
         <v>1056</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7159,13 @@
         <v>7198</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -7183,13 +7174,13 @@
         <v>7198</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7217,13 +7208,13 @@
         <v>160404</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7232,13 +7223,13 @@
         <v>160404</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7266,13 +7257,13 @@
         <v>5650</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -7281,13 +7272,13 @@
         <v>5650</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7315,13 +7306,13 @@
         <v>39505</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -7330,13 +7321,13 @@
         <v>39505</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,7 +7381,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7415,13 +7406,13 @@
         <v>13096</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7430,13 +7421,13 @@
         <v>13096</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7464,13 +7455,13 @@
         <v>4179</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -7479,13 +7470,13 @@
         <v>4179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7504,13 @@
         <v>9255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -7528,13 +7519,13 @@
         <v>9255</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7562,13 +7553,13 @@
         <v>422217</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M49" s="7">
         <v>379</v>
@@ -7577,13 +7568,13 @@
         <v>422217</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7602,13 @@
         <v>22067</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M50" s="7">
         <v>22</v>
@@ -7626,13 +7617,13 @@
         <v>22067</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7660,13 +7651,13 @@
         <v>88675</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M51" s="7">
         <v>82</v>
@@ -7675,13 +7666,13 @@
         <v>88675</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7735,7 +7726,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7751,13 @@
         <v>7248</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -7775,13 +7766,13 @@
         <v>7248</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7809,13 +7800,13 @@
         <v>3277</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7824,13 +7815,13 @@
         <v>3277</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,13 +7849,13 @@
         <v>8254</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -7873,13 +7864,13 @@
         <v>8254</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7898,13 @@
         <v>360614</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M56" s="7">
         <v>331</v>
@@ -7922,13 +7913,13 @@
         <v>360614</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7956,13 +7947,13 @@
         <v>83855</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
       <c r="M57" s="7">
         <v>78</v>
@@ -7971,13 +7962,13 @@
         <v>83855</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>255</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7996,13 @@
         <v>110171</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M58" s="7">
         <v>102</v>
@@ -8020,13 +8011,13 @@
         <v>110171</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8096,13 @@
         <v>43730</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="M60" s="7">
         <v>41</v>
@@ -8120,13 +8111,13 @@
         <v>43730</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8145,13 @@
         <v>25095</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M61" s="7">
         <v>24</v>
@@ -8169,13 +8160,13 @@
         <v>25095</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8194,13 @@
         <v>42969</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -8218,13 +8209,13 @@
         <v>42969</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8243,13 @@
         <v>1975725</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M63" s="7">
         <v>1810</v>
@@ -8267,13 +8258,13 @@
         <v>1975725</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8292,13 @@
         <v>161686</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M64" s="7">
         <v>150</v>
@@ -8316,13 +8307,13 @@
         <v>161686</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8350,13 +8341,13 @@
         <v>491062</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M65" s="7">
         <v>460</v>
@@ -8365,13 +8356,13 @@
         <v>491062</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,7 +8416,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -8449,7 +8440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75918E45-E068-4FC1-97C6-50E7514FC48E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2432631-6DE6-47E7-ABE0-D9AF1F24286E}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8466,7 +8457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8586,13 +8577,13 @@
         <v>6968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8601,13 +8592,13 @@
         <v>6968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8635,13 +8626,13 @@
         <v>2909</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8650,13 +8641,13 @@
         <v>2909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8684,13 +8675,13 @@
         <v>4101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8699,13 +8690,13 @@
         <v>4101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8733,13 +8724,13 @@
         <v>164181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -8748,13 +8739,13 @@
         <v>164181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8782,13 +8773,13 @@
         <v>13148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8797,13 +8788,13 @@
         <v>13148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8831,13 +8822,13 @@
         <v>36462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -8846,13 +8837,13 @@
         <v>36462</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8931,13 +8922,13 @@
         <v>6197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8946,13 +8937,13 @@
         <v>6197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8971,13 @@
         <v>3931</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8995,13 +8986,13 @@
         <v>3931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>161</v>
+        <v>290</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9029,13 +9020,13 @@
         <v>13968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -9044,13 +9035,13 @@
         <v>13968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9078,13 +9069,13 @@
         <v>341847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -9093,13 +9084,13 @@
         <v>341847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9127,13 +9118,13 @@
         <v>10910</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -9142,13 +9133,13 @@
         <v>10910</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9176,13 +9167,13 @@
         <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -9191,13 +9182,13 @@
         <v>23450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9251,7 +9242,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -9276,13 +9267,13 @@
         <v>13757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9291,13 +9282,13 @@
         <v>13757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9331,7 +9322,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9346,7 +9337,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9374,13 +9365,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -9389,13 +9380,13 @@
         <v>8284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9423,13 +9414,13 @@
         <v>216684</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -9438,13 +9429,13 @@
         <v>216684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9472,13 +9463,13 @@
         <v>7907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -9487,13 +9478,13 @@
         <v>7907</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9521,13 +9512,13 @@
         <v>27796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>117</v>
+        <v>318</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -9536,13 +9527,13 @@
         <v>27796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9596,7 +9587,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -9621,13 +9612,13 @@
         <v>13019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -9636,13 +9627,13 @@
         <v>13019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9670,13 +9661,13 @@
         <v>4129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -9685,13 +9676,13 @@
         <v>4129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,13 +9710,13 @@
         <v>3119</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -9734,13 +9725,13 @@
         <v>3119</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9768,13 +9759,13 @@
         <v>200196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>183</v>
@@ -9783,13 +9774,13 @@
         <v>200196</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9817,13 +9808,13 @@
         <v>7204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -9832,13 +9823,13 @@
         <v>7204</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9866,13 +9857,13 @@
         <v>54784</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -9881,13 +9872,13 @@
         <v>54784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>72</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9966,13 +9957,13 @@
         <v>1736</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -9981,13 +9972,13 @@
         <v>1736</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10021,7 +10012,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -10036,7 +10027,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10064,13 +10055,13 @@
         <v>5636</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -10079,13 +10070,13 @@
         <v>5636</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10113,13 +10104,13 @@
         <v>111813</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M35" s="7">
         <v>115</v>
@@ -10128,13 +10119,13 @@
         <v>111813</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10162,13 +10153,13 @@
         <v>5946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10177,13 +10168,13 @@
         <v>5946</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>344</v>
+        <v>308</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10211,13 +10202,13 @@
         <v>47961</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -10226,13 +10217,13 @@
         <v>47961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10311,13 +10302,13 @@
         <v>8339</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -10326,13 +10317,13 @@
         <v>8339</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10366,7 +10357,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -10381,7 +10372,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10409,13 +10400,13 @@
         <v>42916</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M41" s="7">
         <v>40</v>
@@ -10424,13 +10415,13 @@
         <v>42916</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10458,13 +10449,13 @@
         <v>110985</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -10473,13 +10464,13 @@
         <v>110985</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10507,13 +10498,13 @@
         <v>22192</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M43" s="7">
         <v>23</v>
@@ -10522,13 +10513,13 @@
         <v>22192</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10556,13 +10547,13 @@
         <v>21889</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M44" s="7">
         <v>21</v>
@@ -10571,13 +10562,13 @@
         <v>21889</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10631,7 +10622,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10656,13 +10647,13 @@
         <v>14257</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -10671,13 +10662,13 @@
         <v>14257</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10705,13 +10696,13 @@
         <v>2074</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -10720,13 +10711,13 @@
         <v>2074</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>139</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10754,13 +10745,13 @@
         <v>7050</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -10769,13 +10760,13 @@
         <v>7050</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10803,13 +10794,13 @@
         <v>439784</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M49" s="7">
         <v>413</v>
@@ -10818,13 +10809,13 @@
         <v>439784</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10852,13 +10843,13 @@
         <v>17978</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M50" s="7">
         <v>18</v>
@@ -10867,13 +10858,13 @@
         <v>17978</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10901,13 +10892,13 @@
         <v>57685</v>
       </c>
       <c r="J51" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="L51" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="L51" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M51" s="7">
         <v>54</v>
@@ -10916,13 +10907,13 @@
         <v>57685</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P51" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P51" s="7" t="s">
+      <c r="Q51" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10976,7 +10967,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -11001,13 +10992,13 @@
         <v>6036</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="K53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -11016,13 +11007,13 @@
         <v>6036</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="P53" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q53" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11050,13 +11041,13 @@
         <v>2038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -11065,13 +11056,13 @@
         <v>2038</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11099,13 +11090,13 @@
         <v>3702</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -11114,13 +11105,13 @@
         <v>3702</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P55" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P55" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="Q55" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11148,13 +11139,13 @@
         <v>494278</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="L56" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M56" s="7">
         <v>453</v>
@@ -11163,13 +11154,13 @@
         <v>494278</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11197,7 +11188,7 @@
         <v>61851</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>381</v>
@@ -11212,7 +11203,7 @@
         <v>61851</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>126</v>
+        <v>380</v>
       </c>
       <c r="P57" s="7" t="s">
         <v>381</v>
@@ -11346,13 +11337,13 @@
         <v>70309</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M60" s="7">
         <v>67</v>
@@ -11361,13 +11352,13 @@
         <v>70309</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11395,13 +11386,13 @@
         <v>15082</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
       <c r="M61" s="7">
         <v>15</v>
@@ -11410,13 +11401,13 @@
         <v>15082</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>389</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11444,13 +11435,13 @@
         <v>88776</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>391</v>
+        <v>124</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="M62" s="7">
         <v>81</v>
@@ -11459,13 +11450,13 @@
         <v>88776</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>391</v>
+        <v>124</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>392</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11493,13 +11484,13 @@
         <v>2079768</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M63" s="7">
         <v>1956</v>
@@ -11508,13 +11499,13 @@
         <v>2079768</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11542,13 +11533,13 @@
         <v>147136</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="L64" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M64" s="7">
         <v>146</v>
@@ -11557,13 +11548,13 @@
         <v>147136</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P64" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="P64" s="7" t="s">
+      <c r="Q64" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11591,13 +11582,13 @@
         <v>379385</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K65" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="L65" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M65" s="7">
         <v>362</v>
@@ -11606,13 +11597,13 @@
         <v>379385</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="P65" s="7" t="s">
+      <c r="Q65" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11666,7 +11657,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -11690,7 +11681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2283221E-6981-4034-8C5F-184FF69533DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB1614-33A8-4DF9-9C01-6F7C7AB31E22}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11707,7 +11698,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11827,13 +11818,13 @@
         <v>478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>404</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -11842,13 +11833,13 @@
         <v>478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>404</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11882,7 +11873,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -11897,7 +11888,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11925,13 +11916,13 @@
         <v>439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11940,13 +11931,13 @@
         <v>439</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>98</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11974,13 +11965,13 @@
         <v>144883</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -11989,13 +11980,13 @@
         <v>144883</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12023,13 +12014,13 @@
         <v>418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -12038,13 +12029,13 @@
         <v>418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12072,13 +12063,13 @@
         <v>2504</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -12087,13 +12078,13 @@
         <v>2504</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -12172,13 +12163,13 @@
         <v>85074</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -12187,13 +12178,13 @@
         <v>85074</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12221,13 +12212,13 @@
         <v>2320</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -12236,13 +12227,13 @@
         <v>2320</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12270,13 +12261,13 @@
         <v>2001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -12285,13 +12276,13 @@
         <v>2001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>207</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12319,13 +12310,13 @@
         <v>194126</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -12334,13 +12325,13 @@
         <v>194126</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12368,13 +12359,13 @@
         <v>10927</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -12383,13 +12374,13 @@
         <v>10927</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12417,13 +12408,13 @@
         <v>56845</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -12432,13 +12423,13 @@
         <v>56845</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12492,7 +12483,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -12517,13 +12508,13 @@
         <v>8316</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -12532,13 +12523,13 @@
         <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12572,7 +12563,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -12587,7 +12578,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12615,13 +12606,13 @@
         <v>3158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -12630,13 +12621,13 @@
         <v>3158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12664,13 +12655,13 @@
         <v>140434</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -12679,13 +12670,13 @@
         <v>140434</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12713,13 +12704,13 @@
         <v>2816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -12728,13 +12719,13 @@
         <v>2816</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12762,13 +12753,13 @@
         <v>36656</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -12777,13 +12768,13 @@
         <v>36656</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12837,7 +12828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -12862,13 +12853,13 @@
         <v>2487</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -12877,13 +12868,13 @@
         <v>2487</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12911,13 +12902,13 @@
         <v>6256</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -12926,13 +12917,13 @@
         <v>6256</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12960,13 +12951,13 @@
         <v>8259</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
@@ -12975,13 +12966,13 @@
         <v>8259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>159</v>
+        <v>440</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -13009,13 +13000,13 @@
         <v>151993</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -13024,13 +13015,13 @@
         <v>151993</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13058,13 +13049,13 @@
         <v>11566</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -13073,13 +13064,13 @@
         <v>11566</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>449</v>
+        <v>293</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13107,13 +13098,13 @@
         <v>85829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -13122,13 +13113,13 @@
         <v>85829</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13207,13 +13198,13 @@
         <v>1549</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>455</v>
+        <v>130</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -13222,13 +13213,13 @@
         <v>1549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>455</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13262,7 +13253,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -13277,7 +13268,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13305,13 +13296,13 @@
         <v>9768</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -13320,13 +13311,13 @@
         <v>9768</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13354,13 +13345,13 @@
         <v>124769</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="M35" s="7">
         <v>276</v>
@@ -13369,13 +13360,13 @@
         <v>124769</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13403,13 +13394,13 @@
         <v>2016</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -13418,13 +13409,13 @@
         <v>2016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13452,13 +13443,13 @@
         <v>4153</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -13467,13 +13458,13 @@
         <v>4153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13555,10 +13546,10 @@
         <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
@@ -13570,10 +13561,10 @@
         <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13601,13 +13592,13 @@
         <v>1419</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
@@ -13616,13 +13607,13 @@
         <v>1419</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13650,13 +13641,13 @@
         <v>552</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -13665,13 +13656,13 @@
         <v>552</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13699,13 +13690,13 @@
         <v>114237</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M42" s="7">
         <v>223</v>
@@ -13714,13 +13705,13 @@
         <v>114237</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13748,13 +13739,13 @@
         <v>9930</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="M43" s="7">
         <v>14</v>
@@ -13763,13 +13754,13 @@
         <v>9930</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13797,13 +13788,13 @@
         <v>15681</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
@@ -13812,13 +13803,13 @@
         <v>15681</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13872,7 +13863,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -13897,13 +13888,13 @@
         <v>15556</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -13912,13 +13903,13 @@
         <v>15556</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13946,13 +13937,13 @@
         <v>2212</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -13961,13 +13952,13 @@
         <v>2212</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>376</v>
+        <v>240</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13995,13 +13986,13 @@
         <v>4074</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -14010,13 +14001,13 @@
         <v>4074</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14044,13 +14035,13 @@
         <v>330160</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M49" s="7">
         <v>466</v>
@@ -14059,13 +14050,13 @@
         <v>330160</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14093,13 +14084,13 @@
         <v>6979</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -14108,13 +14099,13 @@
         <v>6979</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>389</v>
+        <v>482</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>443</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14142,13 +14133,13 @@
         <v>44097</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
       <c r="M51" s="7">
         <v>61</v>
@@ -14157,13 +14148,13 @@
         <v>44097</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>25</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14217,7 +14208,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -14242,13 +14233,13 @@
         <v>11635</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>489</v>
+        <v>174</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>66</v>
+        <v>487</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
@@ -14257,13 +14248,13 @@
         <v>11635</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>489</v>
+        <v>174</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>66</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14291,13 +14282,13 @@
         <v>662</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -14306,13 +14297,13 @@
         <v>662</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14340,13 +14331,13 @@
         <v>46130</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M55" s="7">
         <v>70</v>
@@ -14355,13 +14346,13 @@
         <v>46130</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14389,13 +14380,13 @@
         <v>275796</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M56" s="7">
         <v>356</v>
@@ -14404,13 +14395,13 @@
         <v>275796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14438,13 +14429,13 @@
         <v>20039</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
@@ -14453,13 +14444,13 @@
         <v>20039</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14487,13 +14478,13 @@
         <v>94350</v>
       </c>
       <c r="J58" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K58" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K58" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="L58" s="7" t="s">
-        <v>500</v>
+        <v>333</v>
       </c>
       <c r="M58" s="7">
         <v>126</v>
@@ -14502,13 +14493,13 @@
         <v>94350</v>
       </c>
       <c r="O58" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="P58" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="P58" s="7" t="s">
-        <v>499</v>
-      </c>
       <c r="Q58" s="7" t="s">
-        <v>500</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14587,13 +14578,13 @@
         <v>130305</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M60" s="7">
         <v>164</v>
@@ -14602,13 +14593,13 @@
         <v>130305</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14636,13 +14627,13 @@
         <v>12868</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14651,13 +14642,13 @@
         <v>12868</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14688,10 +14679,10 @@
         <v>89</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M62" s="7">
         <v>126</v>
@@ -14703,10 +14694,10 @@
         <v>89</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14734,13 +14725,13 @@
         <v>1476396</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="K63" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M63" s="7">
         <v>2316</v>
@@ -14749,13 +14740,13 @@
         <v>1476396</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="P63" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q63" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14783,13 +14774,13 @@
         <v>64691</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M64" s="7">
         <v>76</v>
@@ -14798,13 +14789,13 @@
         <v>64691</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>510</v>
+        <v>291</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14832,13 +14823,13 @@
         <v>340115</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M65" s="7">
         <v>463</v>
@@ -14847,13 +14838,13 @@
         <v>340115</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14907,7 +14898,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60C90F7-363E-490B-8185-BB94B42902D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E9171E-3839-497B-B547-9D356D28313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2D5662D-E2F7-4E84-943D-E95003BA5386}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA1FE0AA-E1B5-4C82-A6F2-75E2848AFF6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="513">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -95,7 +95,7 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>10,3%</t>
+    <t>11,05%</t>
   </si>
   <si>
     <t>Para revisiones periódicas</t>
@@ -104,10 +104,10 @@
     <t>72,94%</t>
   </si>
   <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>Para realizar orientación/planificación familiar</t>
@@ -116,7 +116,7 @@
     <t>4,16%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>12,6%</t>
   </si>
   <si>
     <t>Por algún problema ginecológico</t>
@@ -125,10 +125,10 @@
     <t>19,5%</t>
   </si>
   <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,28 +140,28 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,78%</t>
+    <t>5,77%</t>
   </si>
   <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>6,4%</t>
+    <t>6,24%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>8,11%</t>
+    <t>7,97%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -170,7 +170,7 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>5,14%</t>
+    <t>6,02%</t>
   </si>
   <si>
     <t>18,01%</t>
@@ -185,40 +185,40 @@
     <t>4,43%</t>
   </si>
   <si>
-    <t>13,58%</t>
+    <t>13,82%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>78,08%</t>
   </si>
   <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>11,45%</t>
+    <t>10,98%</t>
   </si>
   <si>
     <t>8,65%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -230,1318 +230,1324 @@
     <t>3,18%</t>
   </si>
   <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
   </si>
   <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
   </si>
   <si>
     <t>24,48%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
     <t>6,21%</t>
   </si>
   <si>
-    <t>5,13%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -1550,31 +1556,28 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>4,19%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
 </sst>
 </file>
@@ -1986,7 +1989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0305F16C-01AE-491B-B9E7-D0B94E6B22D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E788C-C73F-493B-A077-7A2EF2571156}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3360,7 +3363,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -3375,7 +3378,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3406,13 @@
         <v>12873</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -3418,13 +3421,13 @@
         <v>12873</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,7 +3481,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3509,7 +3512,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3524,7 +3527,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3573,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3604,13 @@
         <v>1908</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M34" s="7">
         <v>2</v>
@@ -3616,13 +3619,13 @@
         <v>1908</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3653,13 @@
         <v>23936</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -3665,13 +3668,13 @@
         <v>23936</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3702,13 @@
         <v>2039</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
         <v>2</v>
@@ -3714,13 +3717,13 @@
         <v>2039</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,13 +3751,13 @@
         <v>3901</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -3763,13 +3766,13 @@
         <v>3901</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3826,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3854,7 +3857,7 @@
         <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3869,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3900,13 @@
         <v>1021</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -3912,13 +3915,13 @@
         <v>1021</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,13 +3949,13 @@
         <v>2045</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3961,13 +3964,13 @@
         <v>2045</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3998,13 @@
         <v>44216</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M42" s="7">
         <v>42</v>
@@ -4010,13 +4013,13 @@
         <v>44216</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4047,13 @@
         <v>2940</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
@@ -4059,13 +4062,13 @@
         <v>2940</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4096,13 @@
         <v>5297</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M44" s="7">
         <v>5</v>
@@ -4108,13 +4111,13 @@
         <v>5297</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,7 +4171,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4193,13 +4196,13 @@
         <v>976</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -4208,13 +4211,13 @@
         <v>976</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,10 +4248,10 @@
         <v>61</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M47" s="7">
         <v>3</v>
@@ -4260,10 +4263,10 @@
         <v>61</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4294,13 @@
         <v>8535</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M48" s="7">
         <v>9</v>
@@ -4306,13 +4309,13 @@
         <v>8535</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4343,13 @@
         <v>90346</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M49" s="7">
         <v>89</v>
@@ -4355,13 +4358,13 @@
         <v>90346</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4392,13 @@
         <v>9948</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M50" s="7">
         <v>9</v>
@@ -4404,13 +4407,13 @@
         <v>9948</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4441,13 @@
         <v>19074</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M51" s="7">
         <v>19</v>
@@ -4453,13 +4456,13 @@
         <v>19074</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,7 +4516,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4538,13 +4541,13 @@
         <v>867</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M53" s="7">
         <v>1</v>
@@ -4553,13 +4556,13 @@
         <v>867</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4590,13 @@
         <v>2297</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -4602,13 +4605,13 @@
         <v>2297</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4639,13 @@
         <v>8372</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M55" s="7">
         <v>8</v>
@@ -4651,13 +4654,13 @@
         <v>8372</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4688,13 @@
         <v>108056</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M56" s="7">
         <v>103</v>
@@ -4700,13 +4703,13 @@
         <v>108056</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4734,13 +4737,13 @@
         <v>9997</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M57" s="7">
         <v>8</v>
@@ -4749,13 +4752,13 @@
         <v>9997</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4786,13 @@
         <v>26438</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M58" s="7">
         <v>25</v>
@@ -4798,13 +4801,13 @@
         <v>26438</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4886,13 @@
         <v>2823</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4898,13 +4901,13 @@
         <v>2823</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,10 +4938,10 @@
         <v>41</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M61" s="7">
         <v>14</v>
@@ -4950,10 +4953,10 @@
         <v>41</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4984,13 @@
         <v>30624</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M62" s="7">
         <v>31</v>
@@ -4996,13 +4999,13 @@
         <v>30624</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5030,13 +5033,13 @@
         <v>484313</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M63" s="7">
         <v>474</v>
@@ -5045,13 +5048,13 @@
         <v>484313</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5079,13 +5082,13 @@
         <v>30820</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M64" s="7">
         <v>27</v>
@@ -5094,13 +5097,13 @@
         <v>30820</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,13 +5131,13 @@
         <v>92098</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M65" s="7">
         <v>91</v>
@@ -5143,13 +5146,13 @@
         <v>92098</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5206,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -5227,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5CEFEC-1E22-4F76-8824-E598F9A2A835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A773476-D221-4603-98BF-3AE44CF86A63}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5244,7 +5247,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5681,13 +5684,13 @@
         <v>7008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -5696,13 +5699,13 @@
         <v>7008</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,13 +5733,13 @@
         <v>2241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5745,13 +5748,13 @@
         <v>2241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5782,13 @@
         <v>4084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5794,13 +5797,13 @@
         <v>4084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5831,13 @@
         <v>354152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>322</v>
@@ -5843,13 +5846,13 @@
         <v>354152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5880,13 @@
         <v>14203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -5892,13 +5895,13 @@
         <v>14203</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5929,13 @@
         <v>53774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5941,13 +5944,13 @@
         <v>53774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6029,13 @@
         <v>3216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6041,13 +6044,13 @@
         <v>3216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6075,13 +6078,13 @@
         <v>984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6090,13 +6093,13 @@
         <v>984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6127,13 @@
         <v>1975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6139,13 +6142,13 @@
         <v>1975</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6176,13 @@
         <v>192172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -6188,13 +6191,13 @@
         <v>192172</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6225,13 @@
         <v>15292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6237,13 +6240,13 @@
         <v>15292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6274,13 @@
         <v>54148</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -6286,13 +6289,13 @@
         <v>54148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6371,13 +6374,13 @@
         <v>12182</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6386,13 +6389,13 @@
         <v>12182</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6423,13 @@
         <v>13359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -6435,13 +6438,13 @@
         <v>13359</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6472,13 @@
         <v>12202</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M27" s="7">
         <v>11</v>
@@ -6484,13 +6487,13 @@
         <v>12202</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6521,13 @@
         <v>352054</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>321</v>
@@ -6533,13 +6536,13 @@
         <v>352054</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,13 +6570,13 @@
         <v>13804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -6582,13 +6585,13 @@
         <v>13804</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6616,13 +6619,13 @@
         <v>117318</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>111</v>
@@ -6631,13 +6634,13 @@
         <v>117318</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,7 +6694,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6722,7 +6725,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6737,7 +6740,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,7 +6774,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6786,7 +6789,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,7 +6823,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6835,7 +6838,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6866,13 @@
         <v>134112</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>127</v>
@@ -6878,13 +6881,13 @@
         <v>134112</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6912,13 +6915,13 @@
         <v>6815</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -6927,13 +6930,13 @@
         <v>6815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6964,13 @@
         <v>27471</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6976,13 +6979,13 @@
         <v>27471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,7 +7039,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7061,13 +7064,13 @@
         <v>978</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7076,13 +7079,13 @@
         <v>978</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7113,13 @@
         <v>1056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -7125,13 +7128,13 @@
         <v>1056</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7162,13 @@
         <v>7198</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -7174,13 +7177,13 @@
         <v>7198</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7211,13 @@
         <v>160404</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7223,13 +7226,13 @@
         <v>160404</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7260,13 @@
         <v>5650</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -7272,13 +7275,13 @@
         <v>5650</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7309,13 @@
         <v>39505</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -7321,13 +7324,13 @@
         <v>39505</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>221</v>
+        <v>48</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,7 +7384,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7406,13 +7409,13 @@
         <v>13096</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -7421,13 +7424,13 @@
         <v>13096</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7458,13 @@
         <v>4179</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -7470,13 +7473,13 @@
         <v>4179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7504,13 +7507,13 @@
         <v>9255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -7519,13 +7522,13 @@
         <v>9255</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7553,13 +7556,13 @@
         <v>422217</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M49" s="7">
         <v>379</v>
@@ -7568,13 +7571,13 @@
         <v>422217</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7605,13 @@
         <v>22067</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="M50" s="7">
         <v>22</v>
@@ -7617,13 +7620,13 @@
         <v>22067</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7651,13 +7654,13 @@
         <v>88675</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M51" s="7">
         <v>82</v>
@@ -7666,13 +7669,13 @@
         <v>88675</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7729,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -7751,13 +7754,13 @@
         <v>7248</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -7766,13 +7769,13 @@
         <v>7248</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7803,13 @@
         <v>3277</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7815,13 +7818,13 @@
         <v>3277</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7852,13 @@
         <v>8254</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -7864,13 +7867,13 @@
         <v>8254</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,13 +7901,13 @@
         <v>360614</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M56" s="7">
         <v>331</v>
@@ -7913,13 +7916,13 @@
         <v>360614</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7947,13 +7950,13 @@
         <v>83855</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="M57" s="7">
         <v>78</v>
@@ -7962,13 +7965,13 @@
         <v>83855</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +7999,13 @@
         <v>110171</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M58" s="7">
         <v>102</v>
@@ -8011,13 +8014,13 @@
         <v>110171</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8096,13 +8099,13 @@
         <v>43730</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M60" s="7">
         <v>41</v>
@@ -8111,13 +8114,13 @@
         <v>43730</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8148,13 @@
         <v>25095</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M61" s="7">
         <v>24</v>
@@ -8160,13 +8163,13 @@
         <v>25095</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8194,13 +8197,13 @@
         <v>42969</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -8209,13 +8212,13 @@
         <v>42969</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8243,13 +8246,13 @@
         <v>1975725</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M63" s="7">
         <v>1810</v>
@@ -8258,13 +8261,13 @@
         <v>1975725</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8292,13 +8295,13 @@
         <v>161686</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M64" s="7">
         <v>150</v>
@@ -8307,13 +8310,13 @@
         <v>161686</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,13 +8344,13 @@
         <v>491062</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M65" s="7">
         <v>460</v>
@@ -8356,13 +8359,13 @@
         <v>491062</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -8440,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2432631-6DE6-47E7-ABE0-D9AF1F24286E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A321614F-C79D-4D89-B620-A498E210AAC7}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8457,7 +8460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8577,13 +8580,13 @@
         <v>6968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8592,13 +8595,13 @@
         <v>6968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8626,13 +8629,13 @@
         <v>2909</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8641,13 +8644,13 @@
         <v>2909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8675,13 +8678,13 @@
         <v>4101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8690,13 +8693,13 @@
         <v>4101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>277</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8724,13 +8727,13 @@
         <v>164181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -8739,13 +8742,13 @@
         <v>164181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8776,13 @@
         <v>13148</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8788,13 +8791,13 @@
         <v>13148</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8822,13 +8825,13 @@
         <v>36462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -8837,13 +8840,13 @@
         <v>36462</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8922,13 +8925,13 @@
         <v>6197</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8937,13 +8940,13 @@
         <v>6197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8971,7 +8974,7 @@
         <v>3931</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>290</v>
@@ -8986,7 +8989,7 @@
         <v>3931</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>289</v>
+        <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>290</v>
@@ -9026,7 +9029,7 @@
         <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -9041,7 +9044,7 @@
         <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9069,13 +9072,13 @@
         <v>341847</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -9084,13 +9087,13 @@
         <v>341847</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9118,13 +9121,13 @@
         <v>10910</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -9133,13 +9136,13 @@
         <v>10910</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9167,13 +9170,13 @@
         <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -9182,13 +9185,13 @@
         <v>23450</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9267,13 +9270,13 @@
         <v>13757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9282,13 +9285,13 @@
         <v>13757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9322,7 +9325,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9337,7 +9340,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9365,13 +9368,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -9380,13 +9383,13 @@
         <v>8284</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9414,13 +9417,13 @@
         <v>216684</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -9429,13 +9432,13 @@
         <v>216684</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9463,13 +9466,13 @@
         <v>7907</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -9478,13 +9481,13 @@
         <v>7907</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>314</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9512,13 +9515,13 @@
         <v>27796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -9527,13 +9530,13 @@
         <v>27796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9612,13 +9615,13 @@
         <v>13019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -9627,13 +9630,13 @@
         <v>13019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9661,13 +9664,13 @@
         <v>4129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -9676,13 +9679,13 @@
         <v>4129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9710,13 +9713,13 @@
         <v>3119</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -9725,13 +9728,13 @@
         <v>3119</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9759,13 +9762,13 @@
         <v>200196</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>183</v>
@@ -9774,13 +9777,13 @@
         <v>200196</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9811,13 @@
         <v>7204</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -9823,13 +9826,13 @@
         <v>7204</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9857,13 +9860,13 @@
         <v>54784</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -9872,13 +9875,13 @@
         <v>54784</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9932,7 +9935,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -9957,13 +9960,13 @@
         <v>1736</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -9972,13 +9975,13 @@
         <v>1736</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10055,13 +10058,13 @@
         <v>5636</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -10070,13 +10073,13 @@
         <v>5636</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10104,13 +10107,13 @@
         <v>111813</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M35" s="7">
         <v>115</v>
@@ -10119,13 +10122,13 @@
         <v>111813</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10153,13 +10156,13 @@
         <v>5946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10168,13 +10171,13 @@
         <v>5946</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>308</v>
+        <v>66</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10202,13 +10205,13 @@
         <v>47961</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -10217,13 +10220,13 @@
         <v>47961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10277,7 +10280,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -10302,13 +10305,13 @@
         <v>8339</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -10317,13 +10320,13 @@
         <v>8339</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10357,7 +10360,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -10372,7 +10375,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10400,13 +10403,13 @@
         <v>42916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M41" s="7">
         <v>40</v>
@@ -10415,13 +10418,13 @@
         <v>42916</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10449,13 +10452,13 @@
         <v>110985</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -10464,13 +10467,13 @@
         <v>110985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10498,13 +10501,13 @@
         <v>22192</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" s="7">
         <v>23</v>
@@ -10513,13 +10516,13 @@
         <v>22192</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10547,13 +10550,13 @@
         <v>21889</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M44" s="7">
         <v>21</v>
@@ -10562,13 +10565,13 @@
         <v>21889</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10622,7 +10625,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -10647,13 +10650,13 @@
         <v>14257</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -10662,13 +10665,13 @@
         <v>14257</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10696,13 +10699,13 @@
         <v>2074</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -10711,13 +10714,13 @@
         <v>2074</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10745,13 +10748,13 @@
         <v>7050</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>137</v>
+        <v>364</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -10760,13 +10763,13 @@
         <v>7050</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>137</v>
+        <v>364</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10794,13 +10797,13 @@
         <v>439784</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M49" s="7">
         <v>413</v>
@@ -10809,13 +10812,13 @@
         <v>439784</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10843,13 +10846,13 @@
         <v>17978</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
       <c r="M50" s="7">
         <v>18</v>
@@ -10858,13 +10861,13 @@
         <v>17978</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>368</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -10892,13 +10895,13 @@
         <v>57685</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M51" s="7">
         <v>54</v>
@@ -10907,13 +10910,13 @@
         <v>57685</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10967,7 +10970,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -10992,13 +10995,13 @@
         <v>6036</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -11007,13 +11010,13 @@
         <v>6036</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11041,13 +11044,13 @@
         <v>2038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -11056,13 +11059,13 @@
         <v>2038</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11090,13 +11093,13 @@
         <v>3702</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -11105,13 +11108,13 @@
         <v>3702</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>258</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11139,13 +11142,13 @@
         <v>494278</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M56" s="7">
         <v>453</v>
@@ -11154,13 +11157,13 @@
         <v>494278</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11188,13 +11191,13 @@
         <v>61851</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M57" s="7">
         <v>59</v>
@@ -11203,13 +11206,13 @@
         <v>61851</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -11237,13 +11240,13 @@
         <v>109359</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M58" s="7">
         <v>99</v>
@@ -11252,13 +11255,13 @@
         <v>109359</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -11337,13 +11340,13 @@
         <v>70309</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="M60" s="7">
         <v>67</v>
@@ -11352,13 +11355,13 @@
         <v>70309</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>388</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11386,13 +11389,13 @@
         <v>15082</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="M61" s="7">
         <v>15</v>
@@ -11401,13 +11404,13 @@
         <v>15082</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11435,13 +11438,13 @@
         <v>88776</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="M62" s="7">
         <v>81</v>
@@ -11450,13 +11453,13 @@
         <v>88776</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>124</v>
+        <v>327</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>190</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11484,13 +11487,13 @@
         <v>2079768</v>
       </c>
       <c r="J63" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K63" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="L63" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="M63" s="7">
         <v>1956</v>
@@ -11499,13 +11502,13 @@
         <v>2079768</v>
       </c>
       <c r="O63" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="P63" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P63" s="7" t="s">
+      <c r="Q63" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11533,13 +11536,13 @@
         <v>147136</v>
       </c>
       <c r="J64" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K64" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L64" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M64" s="7">
         <v>146</v>
@@ -11548,13 +11551,13 @@
         <v>147136</v>
       </c>
       <c r="O64" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P64" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q64" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q64" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11582,13 +11585,13 @@
         <v>379385</v>
       </c>
       <c r="J65" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M65" s="7">
         <v>362</v>
@@ -11597,13 +11600,13 @@
         <v>379385</v>
       </c>
       <c r="O65" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q65" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q65" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11657,7 +11660,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -11681,7 +11684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BB1614-33A8-4DF9-9C01-6F7C7AB31E22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD48D5-ADE2-4E33-88EC-95D1433580C7}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11698,7 +11701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11818,13 +11821,13 @@
         <v>478</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -11833,13 +11836,13 @@
         <v>478</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>218</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11873,7 +11876,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -11888,7 +11891,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11916,13 +11919,13 @@
         <v>439</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -11931,13 +11934,13 @@
         <v>439</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11965,13 +11968,13 @@
         <v>144883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
@@ -11980,13 +11983,13 @@
         <v>144883</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12014,13 +12017,13 @@
         <v>418</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -12029,13 +12032,13 @@
         <v>418</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12063,13 +12066,13 @@
         <v>2504</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>410</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -12078,13 +12081,13 @@
         <v>2504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>256</v>
+        <v>407</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>410</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -12163,13 +12166,13 @@
         <v>85074</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -12178,13 +12181,13 @@
         <v>85074</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12212,13 +12215,13 @@
         <v>2320</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -12227,13 +12230,13 @@
         <v>2320</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12261,13 +12264,13 @@
         <v>2001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -12276,13 +12279,13 @@
         <v>2001</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>243</v>
+        <v>413</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>417</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12310,13 +12313,13 @@
         <v>194126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
@@ -12325,13 +12328,13 @@
         <v>194126</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12359,13 +12362,13 @@
         <v>10927</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -12374,13 +12377,13 @@
         <v>10927</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>154</v>
+        <v>418</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12408,13 +12411,13 @@
         <v>56845</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -12423,13 +12426,13 @@
         <v>56845</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12508,13 +12511,13 @@
         <v>8316</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -12523,13 +12526,13 @@
         <v>8316</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12563,7 +12566,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -12578,7 +12581,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12606,13 +12609,13 @@
         <v>3158</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -12621,13 +12624,13 @@
         <v>3158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12655,13 +12658,13 @@
         <v>140434</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -12670,13 +12673,13 @@
         <v>140434</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12704,13 +12707,13 @@
         <v>2816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -12719,13 +12722,13 @@
         <v>2816</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12753,13 +12756,13 @@
         <v>36656</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
@@ -12768,13 +12771,13 @@
         <v>36656</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12853,13 +12856,13 @@
         <v>2487</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -12868,13 +12871,13 @@
         <v>2487</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12902,10 +12905,10 @@
         <v>6256</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>439</v>
@@ -12917,10 +12920,10 @@
         <v>6256</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>436</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>439</v>
@@ -12951,7 +12954,7 @@
         <v>8259</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>440</v>
@@ -12966,7 +12969,7 @@
         <v>8259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>440</v>
@@ -13052,10 +13055,10 @@
         <v>445</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -13067,10 +13070,10 @@
         <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13098,13 +13101,13 @@
         <v>85829</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
@@ -13113,13 +13116,13 @@
         <v>85829</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13173,7 +13176,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -13198,13 +13201,13 @@
         <v>1549</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>130</v>
+        <v>452</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -13213,13 +13216,13 @@
         <v>1549</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>130</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13253,7 +13256,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>451</v>
+        <v>260</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -13268,7 +13271,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>451</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13296,13 +13299,13 @@
         <v>9768</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>452</v>
+        <v>313</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
@@ -13311,13 +13314,13 @@
         <v>9768</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>452</v>
+        <v>313</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13345,13 +13348,13 @@
         <v>124769</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M35" s="7">
         <v>276</v>
@@ -13360,13 +13363,13 @@
         <v>124769</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13394,7 +13397,7 @@
         <v>2016</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>458</v>
@@ -13409,7 +13412,7 @@
         <v>2016</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>187</v>
+        <v>457</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>458</v>
@@ -13518,7 +13521,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -13543,10 +13546,10 @@
         <v>5210</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>463</v>
@@ -13558,10 +13561,10 @@
         <v>5210</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>187</v>
+        <v>364</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>463</v>
@@ -13592,7 +13595,7 @@
         <v>1419</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
@@ -13607,7 +13610,7 @@
         <v>1419</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
@@ -13641,13 +13644,13 @@
         <v>552</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -13656,13 +13659,13 @@
         <v>552</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13742,7 +13745,7 @@
         <v>468</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>410</v>
+        <v>207</v>
       </c>
       <c r="L43" s="7" t="s">
         <v>469</v>
@@ -13757,7 +13760,7 @@
         <v>468</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>410</v>
+        <v>207</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>469</v>
@@ -13863,7 +13866,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -13891,10 +13894,10 @@
         <v>473</v>
       </c>
       <c r="K46" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
@@ -13906,10 +13909,10 @@
         <v>473</v>
       </c>
       <c r="P46" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13937,13 +13940,13 @@
         <v>2212</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -13952,13 +13955,13 @@
         <v>2212</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13992,7 +13995,7 @@
         <v>477</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -14007,7 +14010,7 @@
         <v>477</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14090,7 +14093,7 @@
         <v>482</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
@@ -14105,7 +14108,7 @@
         <v>482</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14133,13 +14136,13 @@
         <v>44097</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M51" s="7">
         <v>61</v>
@@ -14148,13 +14151,13 @@
         <v>44097</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14208,7 +14211,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -14233,13 +14236,13 @@
         <v>11635</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>174</v>
+        <v>487</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
@@ -14248,13 +14251,13 @@
         <v>11635</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>174</v>
+        <v>487</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14282,13 +14285,13 @@
         <v>662</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -14297,13 +14300,13 @@
         <v>662</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14331,13 +14334,13 @@
         <v>46130</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>489</v>
+        <v>37</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M55" s="7">
         <v>70</v>
@@ -14346,13 +14349,13 @@
         <v>46130</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>489</v>
+        <v>37</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14380,13 +14383,13 @@
         <v>275796</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>493</v>
+        <v>179</v>
       </c>
       <c r="M56" s="7">
         <v>356</v>
@@ -14395,13 +14398,13 @@
         <v>275796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>493</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14429,13 +14432,13 @@
         <v>20039</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
@@ -14444,13 +14447,13 @@
         <v>20039</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14478,13 +14481,13 @@
         <v>94350</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>497</v>
+        <v>120</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>498</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>333</v>
+        <v>499</v>
       </c>
       <c r="M58" s="7">
         <v>126</v>
@@ -14493,13 +14496,13 @@
         <v>94350</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>497</v>
+        <v>120</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>498</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>333</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14578,13 +14581,13 @@
         <v>130305</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>112</v>
+        <v>502</v>
       </c>
       <c r="M60" s="7">
         <v>164</v>
@@ -14593,13 +14596,13 @@
         <v>130305</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>112</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14627,13 +14630,13 @@
         <v>12868</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
@@ -14642,13 +14645,13 @@
         <v>12868</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14676,13 +14679,13 @@
         <v>74381</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M62" s="7">
         <v>126</v>
@@ -14691,13 +14694,13 @@
         <v>74381</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>313</v>
+        <v>496</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14725,13 +14728,13 @@
         <v>1476396</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M63" s="7">
         <v>2316</v>
@@ -14740,13 +14743,13 @@
         <v>1476396</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14774,13 +14777,13 @@
         <v>64691</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>291</v>
+        <v>437</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M64" s="7">
         <v>76</v>
@@ -14789,13 +14792,13 @@
         <v>64691</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>291</v>
+        <v>437</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14823,13 +14826,13 @@
         <v>340115</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M65" s="7">
         <v>463</v>
@@ -14838,13 +14841,13 @@
         <v>340115</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>509</v>
+        <v>472</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14898,7 +14901,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P42B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11E9171E-3839-497B-B547-9D356D28313B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F149CF4E-3262-48AC-8B8E-5A3D5AB11BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DA1FE0AA-E1B5-4C82-A6F2-75E2848AFF6B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{097981D8-133F-4EA0-B1B2-5F678C506900}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="529">
   <si>
     <t>Población según el motivo de última consulta al ginecólogo en 2007 (Tasa respuesta: 9,83%)</t>
   </si>
@@ -512,6 +512,54 @@
     <t>Población según el motivo de última consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
   <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
     <t>1,61%</t>
   </si>
   <si>
@@ -602,982 +650,982 @@
     <t>25,49%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
     <t>2,34%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2016 (Tasa respuesta: 39,99%)</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>Población según el motivo de última consulta al ginecólogo en 2023 (Tasa respuesta: 36,17%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
 </sst>
 </file>
@@ -1989,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173E788C-C73F-493B-A077-7A2EF2571156}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657001A2-4C85-46D7-B7AC-622860594793}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5230,7 +5278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A773476-D221-4603-98BF-3AE44CF86A63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E2AC36-850F-4331-8F5E-43E427965ABB}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5361,30 +5409,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10132</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10132</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,30 +5458,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2250</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2250</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,30 +5507,34 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="7">
+        <v>9409</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N6" s="7">
+        <v>9409</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,30 +5556,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="I7" s="7">
+        <v>167900</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>147</v>
+      </c>
+      <c r="N7" s="7">
+        <v>167900</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,30 +5605,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>7425</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7425</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,30 +5654,34 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="I9" s="7">
+        <v>34670</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N9" s="7">
+        <v>34670</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,30 +5703,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="I10" s="7">
+        <v>231786</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <v>204</v>
+      </c>
+      <c r="N10" s="7">
+        <v>231786</v>
+      </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,10 +5760,10 @@
         <v>7008</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>62</v>
@@ -5699,10 +5775,10 @@
         <v>7008</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>62</v>
@@ -5733,13 +5809,13 @@
         <v>2241</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5748,13 +5824,13 @@
         <v>2241</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5858,13 @@
         <v>4084</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -5797,13 +5873,13 @@
         <v>4084</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5907,13 @@
         <v>354152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>322</v>
@@ -5846,13 +5922,13 @@
         <v>354152</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5880,13 +5956,13 @@
         <v>14203</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M15" s="7">
         <v>13</v>
@@ -5895,13 +5971,13 @@
         <v>14203</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +6005,13 @@
         <v>53774</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="M16" s="7">
         <v>49</v>
@@ -5944,13 +6020,13 @@
         <v>53774</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6105,13 @@
         <v>3216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -6044,13 +6120,13 @@
         <v>3216</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6154,13 @@
         <v>984</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -6093,13 +6169,13 @@
         <v>984</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6148,7 +6224,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6252,13 @@
         <v>192172</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="M21" s="7">
         <v>178</v>
@@ -6191,13 +6267,13 @@
         <v>192172</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6225,13 +6301,13 @@
         <v>15292</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -6240,13 +6316,13 @@
         <v>15292</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6350,13 @@
         <v>54148</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
@@ -6289,13 +6365,13 @@
         <v>54148</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,34 +6444,34 @@
         <v>11</v>
       </c>
       <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2051</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7">
-        <v>12182</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2051</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="7">
-        <v>12182</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>188</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,34 +6493,34 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I26" s="7">
-        <v>13359</v>
+        <v>11109</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N26" s="7">
-        <v>13359</v>
+        <v>11109</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,34 +6542,34 @@
         <v>11</v>
       </c>
       <c r="H27" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I27" s="7">
-        <v>12202</v>
+        <v>2793</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="N27" s="7">
-        <v>12202</v>
+        <v>2793</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,34 +6591,34 @@
         <v>11</v>
       </c>
       <c r="H28" s="7">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c r="I28" s="7">
-        <v>352054</v>
+        <v>184154</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="M28" s="7">
-        <v>321</v>
+        <v>174</v>
       </c>
       <c r="N28" s="7">
-        <v>352054</v>
+        <v>184154</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,34 +6640,34 @@
         <v>11</v>
       </c>
       <c r="H29" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>13804</v>
+        <v>6379</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="M29" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N29" s="7">
-        <v>13804</v>
+        <v>6379</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6613,34 +6689,34 @@
         <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="I30" s="7">
-        <v>117318</v>
+        <v>82648</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="M30" s="7">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="N30" s="7">
-        <v>117318</v>
+        <v>82648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,10 +6738,10 @@
         <v>11</v>
       </c>
       <c r="H31" s="7">
-        <v>480</v>
+        <v>276</v>
       </c>
       <c r="I31" s="7">
-        <v>520920</v>
+        <v>289134</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>30</v>
@@ -6677,10 +6753,10 @@
         <v>30</v>
       </c>
       <c r="M31" s="7">
-        <v>480</v>
+        <v>276</v>
       </c>
       <c r="N31" s="7">
-        <v>520920</v>
+        <v>289134</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>30</v>
@@ -6725,7 +6801,7 @@
         <v>13</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -6740,7 +6816,7 @@
         <v>13</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6774,7 +6850,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6789,7 +6865,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6823,7 +6899,7 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6838,7 +6914,7 @@
         <v>13</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,10 +6945,10 @@
         <v>95</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>127</v>
@@ -6884,10 +6960,10 @@
         <v>95</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6915,13 +6991,13 @@
         <v>6815</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>7</v>
@@ -6930,13 +7006,13 @@
         <v>6815</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6964,13 +7040,13 @@
         <v>27471</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>28</v>
@@ -6979,13 +7055,13 @@
         <v>27471</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7140,13 @@
         <v>978</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="M39" s="7">
         <v>1</v>
@@ -7079,13 +7155,13 @@
         <v>978</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7113,7 +7189,7 @@
         <v>1056</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
@@ -7128,7 +7204,7 @@
         <v>1056</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
@@ -7162,13 +7238,13 @@
         <v>7198</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="M41" s="7">
         <v>7</v>
@@ -7177,13 +7253,13 @@
         <v>7198</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7287,13 @@
         <v>160404</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="M42" s="7">
         <v>152</v>
@@ -7226,13 +7302,13 @@
         <v>160404</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7336,13 @@
         <v>5650</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="M43" s="7">
         <v>5</v>
@@ -7275,13 +7351,13 @@
         <v>5650</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7385,13 @@
         <v>39505</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -7324,13 +7400,13 @@
         <v>39505</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,10 +7485,10 @@
         <v>13096</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>46</v>
@@ -7424,10 +7500,10 @@
         <v>13096</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>46</v>
@@ -7458,13 +7534,13 @@
         <v>4179</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -7473,13 +7549,13 @@
         <v>4179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7583,13 @@
         <v>9255</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>105</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M48" s="7">
         <v>8</v>
@@ -7522,13 +7598,13 @@
         <v>9255</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>105</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7556,13 +7632,13 @@
         <v>422217</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M49" s="7">
         <v>379</v>
@@ -7571,13 +7647,13 @@
         <v>422217</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,10 +7681,10 @@
         <v>22067</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>77</v>
@@ -7620,10 +7696,10 @@
         <v>22067</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>77</v>
@@ -7654,13 +7730,13 @@
         <v>88675</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="M51" s="7">
         <v>82</v>
@@ -7669,13 +7745,13 @@
         <v>88675</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,10 +7833,10 @@
         <v>141</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="M53" s="7">
         <v>6</v>
@@ -7772,10 +7848,10 @@
         <v>141</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7803,13 +7879,13 @@
         <v>3277</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M54" s="7">
         <v>3</v>
@@ -7818,13 +7894,13 @@
         <v>3277</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,13 +7928,13 @@
         <v>8254</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M55" s="7">
         <v>7</v>
@@ -7867,13 +7943,13 @@
         <v>8254</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,13 +7977,13 @@
         <v>360614</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M56" s="7">
         <v>331</v>
@@ -7916,13 +7992,13 @@
         <v>360614</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +8026,13 @@
         <v>83855</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M57" s="7">
         <v>78</v>
@@ -7965,13 +8041,13 @@
         <v>83855</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8075,13 @@
         <v>110171</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M58" s="7">
         <v>102</v>
@@ -8014,13 +8090,13 @@
         <v>110171</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8175,13 @@
         <v>43730</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="M60" s="7">
         <v>41</v>
@@ -8114,13 +8190,13 @@
         <v>43730</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8224,13 @@
         <v>25095</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M61" s="7">
         <v>24</v>
@@ -8163,13 +8239,13 @@
         <v>25095</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8273,13 @@
         <v>42969</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="M62" s="7">
         <v>39</v>
@@ -8212,13 +8288,13 @@
         <v>42969</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,13 +8322,13 @@
         <v>1975725</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="M63" s="7">
         <v>1810</v>
@@ -8261,13 +8337,13 @@
         <v>1975725</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8295,13 +8371,13 @@
         <v>161686</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="M64" s="7">
         <v>150</v>
@@ -8310,13 +8386,13 @@
         <v>161686</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8420,13 @@
         <v>491062</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M65" s="7">
         <v>460</v>
@@ -8359,13 +8435,13 @@
         <v>491062</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A321614F-C79D-4D89-B620-A498E210AAC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5299F4-D8B4-49EC-AE79-ECA2F7ECC74C}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8460,7 +8536,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8580,13 +8656,13 @@
         <v>6968</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -8595,13 +8671,13 @@
         <v>6968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8629,13 +8705,13 @@
         <v>2909</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -8644,13 +8720,13 @@
         <v>2909</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8678,13 +8754,13 @@
         <v>4101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>138</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>4</v>
@@ -8693,13 +8769,13 @@
         <v>4101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>138</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8727,13 +8803,13 @@
         <v>164181</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
@@ -8742,13 +8818,13 @@
         <v>164181</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,10 +8855,10 @@
         <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -8794,10 +8870,10 @@
         <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8825,13 +8901,13 @@
         <v>36462</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="M9" s="7">
         <v>36</v>
@@ -8840,13 +8916,13 @@
         <v>36462</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8928,10 +9004,10 @@
         <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -8943,10 +9019,10 @@
         <v>99</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8977,10 +9053,10 @@
         <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8992,10 +9068,10 @@
         <v>63</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9023,10 +9099,10 @@
         <v>13968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>35</v>
@@ -9038,10 +9114,10 @@
         <v>13968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>35</v>
@@ -9072,13 +9148,13 @@
         <v>341847</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M14" s="7">
         <v>320</v>
@@ -9087,13 +9163,13 @@
         <v>341847</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,13 +9197,13 @@
         <v>10910</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
@@ -9136,13 +9212,13 @@
         <v>10910</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9170,13 +9246,13 @@
         <v>23450</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -9185,13 +9261,13 @@
         <v>23450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9270,13 +9346,13 @@
         <v>13757</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -9285,13 +9361,13 @@
         <v>13757</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,7 +9401,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -9340,7 +9416,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>305</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9368,13 +9444,13 @@
         <v>8284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -9383,13 +9459,13 @@
         <v>8284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,13 +9493,13 @@
         <v>216684</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>210</v>
@@ -9432,13 +9508,13 @@
         <v>216684</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9469,10 +9545,10 @@
         <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -9484,10 +9560,10 @@
         <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9515,13 +9591,13 @@
         <v>27796</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M23" s="7">
         <v>29</v>
@@ -9530,13 +9606,13 @@
         <v>27796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9615,13 +9691,13 @@
         <v>13019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -9630,13 +9706,13 @@
         <v>13019</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9664,13 +9740,13 @@
         <v>4129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -9679,13 +9755,13 @@
         <v>4129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,13 +9789,13 @@
         <v>3119</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -9728,13 +9804,13 @@
         <v>3119</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9762,13 +9838,13 @@
         <v>200196</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="M28" s="7">
         <v>183</v>
@@ -9777,13 +9853,13 @@
         <v>200196</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9811,13 +9887,13 @@
         <v>7204</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -9826,13 +9902,13 @@
         <v>7204</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9860,13 +9936,13 @@
         <v>54784</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -9875,13 +9951,13 @@
         <v>54784</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9960,13 +10036,13 @@
         <v>1736</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -9975,13 +10051,13 @@
         <v>1736</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10015,7 +10091,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -10030,7 +10106,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10058,13 +10134,13 @@
         <v>5636</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -10073,13 +10149,13 @@
         <v>5636</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10107,13 +10183,13 @@
         <v>111813</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="M35" s="7">
         <v>115</v>
@@ -10122,13 +10198,13 @@
         <v>111813</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10156,13 +10232,13 @@
         <v>5946</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M36" s="7">
         <v>6</v>
@@ -10171,13 +10247,13 @@
         <v>5946</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10205,13 +10281,13 @@
         <v>47961</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -10220,13 +10296,13 @@
         <v>47961</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10305,13 +10381,13 @@
         <v>8339</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -10320,13 +10396,13 @@
         <v>8339</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -10360,7 +10436,7 @@
         <v>13</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -10375,7 +10451,7 @@
         <v>13</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>348</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -10403,13 +10479,13 @@
         <v>42916</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="M41" s="7">
         <v>40</v>
@@ -10418,13 +10494,13 @@
         <v>42916</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10452,13 +10528,13 @@
         <v>110985</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -10467,13 +10543,13 @@
         <v>110985</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10501,13 +10577,13 @@
         <v>22192</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M43" s="7">
         <v>23</v>
@@ -10516,13 +10592,13 @@
         <v>22192</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -10550,13 +10626,13 @@
         <v>21889</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="M44" s="7">
         <v>21</v>
@@ -10565,13 +10641,13 @@
         <v>21889</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10650,13 +10726,13 @@
         <v>14257</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>99</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="M46" s="7">
         <v>14</v>
@@ -10665,13 +10741,13 @@
         <v>14257</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>198</v>
+        <v>375</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>99</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,13 +10775,13 @@
         <v>2074</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M47" s="7">
         <v>2</v>
@@ -10714,13 +10790,13 @@
         <v>2074</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10748,13 +10824,13 @@
         <v>7050</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>122</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
@@ -10763,13 +10839,13 @@
         <v>7050</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>122</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -10797,13 +10873,13 @@
         <v>439784</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="M49" s="7">
         <v>413</v>
@@ -10812,13 +10888,13 @@
         <v>439784</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -10846,10 +10922,10 @@
         <v>17978</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>125</v>
@@ -10861,10 +10937,10 @@
         <v>17978</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>125</v>
@@ -10895,13 +10971,13 @@
         <v>57685</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M51" s="7">
         <v>54</v>
@@ -10910,13 +10986,13 @@
         <v>57685</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -10995,13 +11071,13 @@
         <v>6036</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="M53" s="7">
         <v>5</v>
@@ -11010,13 +11086,13 @@
         <v>6036</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>375</v>
+        <v>207</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -11044,13 +11120,13 @@
         <v>2038</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -11059,13 +11135,13 @@
         <v>2038</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -11093,13 +11169,13 @@
         <v>3702</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M55" s="7">
         <v>3</v>
@@ -11108,13 +11184,13 @@
         <v>3702</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -11142,13 +11218,13 @@
         <v>494278</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M56" s="7">
         <v>453</v>
@@ -11157,13 +11233,13 @@
         <v>494278</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -11191,13 +11267,13 @@
         <v>61851</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="M57" s="7">
         <v>59</v>
@@ -11206,13 +11282,13 @@
         <v>61851</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -11240,13 +11316,13 @@
         <v>109359</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="M58" s="7">
         <v>99</v>
@@ -11255,13 +11331,13 @@
         <v>109359</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -11340,13 +11416,13 @@
         <v>70309</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M60" s="7">
         <v>67</v>
@@ -11355,13 +11431,13 @@
         <v>70309</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -11389,13 +11465,13 @@
         <v>15082</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="M61" s="7">
         <v>15</v>
@@ -11404,13 +11480,13 @@
         <v>15082</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -11438,13 +11514,13 @@
         <v>88776</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="M62" s="7">
         <v>81</v>
@@ -11453,13 +11529,13 @@
         <v>88776</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11487,13 +11563,13 @@
         <v>2079768</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="M63" s="7">
         <v>1956</v>
@@ -11502,13 +11578,13 @@
         <v>2079768</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11536,13 +11612,13 @@
         <v>147136</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="M64" s="7">
         <v>146</v>
@@ -11551,13 +11627,13 @@
         <v>147136</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11585,13 +11661,13 @@
         <v>379385</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="M65" s="7">
         <v>362</v>
@@ -11600,13 +11676,13 @@
         <v>379385</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11684,7 +11760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBD48D5-ADE2-4E33-88EC-95D1433580C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A5548FA-54AD-4CCA-8259-9C5E6398180F}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11701,7 +11777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -11818,31 +11894,31 @@
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -11876,7 +11952,7 @@
         <v>13</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -11891,7 +11967,7 @@
         <v>13</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -11916,31 +11992,31 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>377</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>124</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -11965,31 +12041,31 @@
         <v>293</v>
       </c>
       <c r="I7" s="7">
-        <v>144883</v>
+        <v>153363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="M7" s="7">
         <v>293</v>
       </c>
       <c r="N7" s="7">
-        <v>144883</v>
+        <v>153363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -12014,31 +12090,31 @@
         <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -12063,31 +12139,31 @@
         <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>2504</v>
+        <v>2601</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>2504</v>
+        <v>2601</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -12112,7 +12188,7 @@
         <v>303</v>
       </c>
       <c r="I10" s="7">
-        <v>148722</v>
+        <v>157331</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>30</v>
@@ -12127,7 +12203,7 @@
         <v>303</v>
       </c>
       <c r="N10" s="7">
-        <v>148722</v>
+        <v>157331</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>30</v>
@@ -12163,31 +12239,31 @@
         <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>85074</v>
+        <v>79363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
       </c>
       <c r="N11" s="7">
-        <v>85074</v>
+        <v>79363</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -12212,31 +12288,31 @@
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2320</v>
+        <v>2145</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>2320</v>
+        <v>2145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>430</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -12261,31 +12337,31 @@
         <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>2001</v>
+        <v>1820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2001</v>
+        <v>1820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>231</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -12310,31 +12386,31 @@
         <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>194126</v>
+        <v>180589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="M14" s="7">
         <v>254</v>
       </c>
       <c r="N14" s="7">
-        <v>194126</v>
+        <v>180589</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -12359,31 +12435,31 @@
         <v>11</v>
       </c>
       <c r="I15" s="7">
-        <v>10927</v>
+        <v>10115</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>417</v>
+        <v>305</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="M15" s="7">
         <v>11</v>
       </c>
       <c r="N15" s="7">
-        <v>10927</v>
+        <v>10115</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>417</v>
+        <v>305</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -12408,31 +12484,31 @@
         <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>56845</v>
+        <v>52737</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
       </c>
       <c r="N16" s="7">
-        <v>56845</v>
+        <v>52737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12457,7 +12533,7 @@
         <v>456</v>
       </c>
       <c r="I17" s="7">
-        <v>351293</v>
+        <v>326770</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -12472,7 +12548,7 @@
         <v>456</v>
       </c>
       <c r="N17" s="7">
-        <v>351293</v>
+        <v>326770</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>30</v>
@@ -12508,31 +12584,31 @@
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>8316</v>
+        <v>7792</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>424</v>
+        <v>34</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>8316</v>
+        <v>7792</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -12566,7 +12642,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -12581,7 +12657,7 @@
         <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -12606,31 +12682,31 @@
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>3158</v>
+        <v>2960</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>444</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>14</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
       </c>
       <c r="N20" s="7">
-        <v>3158</v>
+        <v>2960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>231</v>
+        <v>444</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12655,31 +12731,31 @@
         <v>223</v>
       </c>
       <c r="I21" s="7">
-        <v>140434</v>
+        <v>131048</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
       </c>
       <c r="N21" s="7">
-        <v>140434</v>
+        <v>131048</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -12704,31 +12780,31 @@
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>2816</v>
+        <v>2627</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2816</v>
+        <v>2627</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12753,31 +12829,31 @@
         <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>36656</v>
+        <v>34102</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="M23" s="7">
         <v>52</v>
       </c>
       <c r="N23" s="7">
-        <v>36656</v>
+        <v>34102</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -12802,7 +12878,7 @@
         <v>294</v>
       </c>
       <c r="I24" s="7">
-        <v>191379</v>
+        <v>178528</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -12817,7 +12893,7 @@
         <v>294</v>
       </c>
       <c r="N24" s="7">
-        <v>191379</v>
+        <v>178528</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -12853,31 +12929,31 @@
         <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>2487</v>
+        <v>2214</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>434</v>
+        <v>107</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>436</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>2487</v>
+        <v>2214</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>107</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -12902,31 +12978,31 @@
         <v>7</v>
       </c>
       <c r="I26" s="7">
-        <v>6256</v>
+        <v>5772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>6256</v>
+        <v>5772</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -12951,31 +13027,31 @@
         <v>15</v>
       </c>
       <c r="I27" s="7">
-        <v>8259</v>
+        <v>7766</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>289</v>
+        <v>457</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="M27" s="7">
         <v>15</v>
       </c>
       <c r="N27" s="7">
-        <v>8259</v>
+        <v>7766</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>289</v>
+        <v>457</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -13000,31 +13076,31 @@
         <v>225</v>
       </c>
       <c r="I28" s="7">
-        <v>151993</v>
+        <v>196553</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
       </c>
       <c r="N28" s="7">
-        <v>151993</v>
+        <v>196553</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -13049,31 +13125,31 @@
         <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>11566</v>
+        <v>10107</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>11566</v>
+        <v>10107</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>445</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -13098,31 +13174,31 @@
         <v>108</v>
       </c>
       <c r="I30" s="7">
-        <v>85829</v>
+        <v>103163</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="M30" s="7">
         <v>108</v>
       </c>
       <c r="N30" s="7">
-        <v>85829</v>
+        <v>103163</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -13147,7 +13223,7 @@
         <v>369</v>
       </c>
       <c r="I31" s="7">
-        <v>266389</v>
+        <v>325574</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>30</v>
@@ -13162,7 +13238,7 @@
         <v>369</v>
       </c>
       <c r="N31" s="7">
-        <v>266389</v>
+        <v>325574</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>30</v>
@@ -13198,31 +13274,31 @@
         <v>3</v>
       </c>
       <c r="I32" s="7">
-        <v>1549</v>
+        <v>1403</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>1549</v>
+        <v>1403</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -13256,7 +13332,7 @@
         <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -13271,7 +13347,7 @@
         <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -13296,31 +13372,31 @@
         <v>24</v>
       </c>
       <c r="I34" s="7">
-        <v>9768</v>
+        <v>8899</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>24</v>
       </c>
       <c r="N34" s="7">
-        <v>9768</v>
+        <v>8899</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>313</v>
+        <v>470</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -13345,31 +13421,31 @@
         <v>276</v>
       </c>
       <c r="I35" s="7">
-        <v>124769</v>
+        <v>113350</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="M35" s="7">
         <v>276</v>
       </c>
       <c r="N35" s="7">
-        <v>124769</v>
+        <v>113350</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -13394,31 +13470,31 @@
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>2016</v>
+        <v>1791</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
       </c>
       <c r="N36" s="7">
-        <v>2016</v>
+        <v>1791</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -13443,31 +13519,31 @@
         <v>11</v>
       </c>
       <c r="I37" s="7">
-        <v>4153</v>
+        <v>3789</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>462</v>
+        <v>318</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
       </c>
       <c r="N37" s="7">
-        <v>4153</v>
+        <v>3789</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>462</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -13492,7 +13568,7 @@
         <v>317</v>
       </c>
       <c r="I38" s="7">
-        <v>142255</v>
+        <v>129232</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>30</v>
@@ -13507,7 +13583,7 @@
         <v>317</v>
       </c>
       <c r="N38" s="7">
-        <v>142255</v>
+        <v>129232</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>30</v>
@@ -13543,31 +13619,31 @@
         <v>7</v>
       </c>
       <c r="I39" s="7">
-        <v>5210</v>
+        <v>4819</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="M39" s="7">
         <v>7</v>
       </c>
       <c r="N39" s="7">
-        <v>5210</v>
+        <v>4819</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -13592,31 +13668,31 @@
         <v>2</v>
       </c>
       <c r="I40" s="7">
-        <v>1419</v>
+        <v>1323</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="M40" s="7">
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>1419</v>
+        <v>1323</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -13641,31 +13717,31 @@
         <v>1</v>
       </c>
       <c r="I41" s="7">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>176</v>
+        <v>484</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
       </c>
       <c r="N41" s="7">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>176</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -13690,31 +13766,31 @@
         <v>223</v>
       </c>
       <c r="I42" s="7">
-        <v>114237</v>
+        <v>106470</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="M42" s="7">
         <v>223</v>
       </c>
       <c r="N42" s="7">
-        <v>114237</v>
+        <v>106470</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -13739,31 +13815,31 @@
         <v>14</v>
       </c>
       <c r="I43" s="7">
-        <v>9930</v>
+        <v>9271</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="M43" s="7">
         <v>14</v>
       </c>
       <c r="N43" s="7">
-        <v>9930</v>
+        <v>9271</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>207</v>
+        <v>360</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -13788,31 +13864,31 @@
         <v>24</v>
       </c>
       <c r="I44" s="7">
-        <v>15681</v>
+        <v>14520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="M44" s="7">
         <v>24</v>
       </c>
       <c r="N44" s="7">
-        <v>15681</v>
+        <v>14520</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>471</v>
+        <v>169</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -13837,7 +13913,7 @@
         <v>271</v>
       </c>
       <c r="I45" s="7">
-        <v>147029</v>
+        <v>136932</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>30</v>
@@ -13852,7 +13928,7 @@
         <v>271</v>
       </c>
       <c r="N45" s="7">
-        <v>147029</v>
+        <v>136932</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>30</v>
@@ -13888,31 +13964,31 @@
         <v>21</v>
       </c>
       <c r="I46" s="7">
-        <v>15556</v>
+        <v>14530</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>21</v>
       </c>
       <c r="N46" s="7">
-        <v>15556</v>
+        <v>14530</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>474</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -13937,31 +14013,31 @@
         <v>4</v>
       </c>
       <c r="I47" s="7">
-        <v>2212</v>
+        <v>2036</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>244</v>
+        <v>453</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>2212</v>
+        <v>2036</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>246</v>
+        <v>401</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>244</v>
+        <v>453</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -13986,31 +14062,31 @@
         <v>6</v>
       </c>
       <c r="I48" s="7">
-        <v>4074</v>
+        <v>3756</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>476</v>
+        <v>348</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M48" s="7">
         <v>6</v>
       </c>
       <c r="N48" s="7">
-        <v>4074</v>
+        <v>3756</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>476</v>
+        <v>348</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -14035,31 +14111,31 @@
         <v>466</v>
       </c>
       <c r="I49" s="7">
-        <v>330160</v>
+        <v>306732</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="M49" s="7">
         <v>466</v>
       </c>
       <c r="N49" s="7">
-        <v>330160</v>
+        <v>306732</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -14084,31 +14160,31 @@
         <v>11</v>
       </c>
       <c r="I50" s="7">
-        <v>6979</v>
+        <v>6586</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>483</v>
+        <v>183</v>
       </c>
       <c r="M50" s="7">
         <v>11</v>
       </c>
       <c r="N50" s="7">
-        <v>6979</v>
+        <v>6586</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>481</v>
+        <v>431</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>482</v>
+        <v>389</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>483</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -14133,31 +14209,31 @@
         <v>61</v>
       </c>
       <c r="I51" s="7">
-        <v>44097</v>
+        <v>40951</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="M51" s="7">
         <v>61</v>
       </c>
       <c r="N51" s="7">
-        <v>44097</v>
+        <v>40951</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -14182,7 +14258,7 @@
         <v>569</v>
       </c>
       <c r="I52" s="7">
-        <v>403079</v>
+        <v>374590</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>30</v>
@@ -14197,7 +14273,7 @@
         <v>569</v>
       </c>
       <c r="N52" s="7">
-        <v>403079</v>
+        <v>374590</v>
       </c>
       <c r="O52" s="7" t="s">
         <v>30</v>
@@ -14233,31 +14309,31 @@
         <v>7</v>
       </c>
       <c r="I53" s="7">
-        <v>11635</v>
+        <v>9057</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>488</v>
+        <v>203</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="M53" s="7">
         <v>7</v>
       </c>
       <c r="N53" s="7">
-        <v>11635</v>
+        <v>9057</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>488</v>
+        <v>203</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -14282,31 +14358,31 @@
         <v>1</v>
       </c>
       <c r="I54" s="7">
-        <v>662</v>
+        <v>551</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>490</v>
+        <v>242</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
       </c>
       <c r="N54" s="7">
-        <v>662</v>
+        <v>551</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>490</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14331,31 +14407,31 @@
         <v>70</v>
       </c>
       <c r="I55" s="7">
-        <v>46130</v>
+        <v>38830</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="M55" s="7">
         <v>70</v>
       </c>
       <c r="N55" s="7">
-        <v>46130</v>
+        <v>38830</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>37</v>
+        <v>319</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14380,31 +14456,31 @@
         <v>356</v>
       </c>
       <c r="I56" s="7">
-        <v>275796</v>
+        <v>229834</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>179</v>
+        <v>508</v>
       </c>
       <c r="M56" s="7">
         <v>356</v>
       </c>
       <c r="N56" s="7">
-        <v>275796</v>
+        <v>229834</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>179</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14429,31 +14505,31 @@
         <v>23</v>
       </c>
       <c r="I57" s="7">
-        <v>20039</v>
+        <v>16793</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="M57" s="7">
         <v>23</v>
       </c>
       <c r="N57" s="7">
-        <v>20039</v>
+        <v>16793</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14478,31 +14554,31 @@
         <v>126</v>
       </c>
       <c r="I58" s="7">
-        <v>94350</v>
+        <v>78609</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="M58" s="7">
         <v>126</v>
       </c>
       <c r="N58" s="7">
-        <v>94350</v>
+        <v>78609</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14527,7 +14603,7 @@
         <v>583</v>
       </c>
       <c r="I59" s="7">
-        <v>448611</v>
+        <v>373674</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>30</v>
@@ -14542,7 +14618,7 @@
         <v>583</v>
       </c>
       <c r="N59" s="7">
-        <v>448611</v>
+        <v>373674</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>30</v>
@@ -14578,31 +14654,31 @@
         <v>164</v>
       </c>
       <c r="I60" s="7">
-        <v>130305</v>
+        <v>119680</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="M60" s="7">
         <v>164</v>
       </c>
       <c r="N60" s="7">
-        <v>130305</v>
+        <v>119680</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14627,31 +14703,31 @@
         <v>17</v>
       </c>
       <c r="I61" s="7">
-        <v>12868</v>
+        <v>11827</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>476</v>
+        <v>63</v>
       </c>
       <c r="M61" s="7">
         <v>17</v>
       </c>
       <c r="N61" s="7">
-        <v>12868</v>
+        <v>11827</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>476</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14676,31 +14752,31 @@
         <v>126</v>
       </c>
       <c r="I62" s="7">
-        <v>74381</v>
+        <v>65013</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>90</v>
+        <v>519</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="M62" s="7">
         <v>126</v>
       </c>
       <c r="N62" s="7">
-        <v>74381</v>
+        <v>65013</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>90</v>
+        <v>519</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14725,31 +14801,31 @@
         <v>2316</v>
       </c>
       <c r="I63" s="7">
-        <v>1476396</v>
+        <v>1417941</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="M63" s="7">
         <v>2316</v>
       </c>
       <c r="N63" s="7">
-        <v>1476396</v>
+        <v>1417941</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14774,31 +14850,31 @@
         <v>76</v>
       </c>
       <c r="I64" s="7">
-        <v>64691</v>
+        <v>57698</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>509</v>
+        <v>110</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="M64" s="7">
         <v>76</v>
       </c>
       <c r="N64" s="7">
-        <v>64691</v>
+        <v>57698</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>509</v>
+        <v>110</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14823,31 +14899,31 @@
         <v>463</v>
       </c>
       <c r="I65" s="7">
-        <v>340115</v>
+        <v>330472</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="M65" s="7">
         <v>463</v>
       </c>
       <c r="N65" s="7">
-        <v>340115</v>
+        <v>330472</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>472</v>
+        <v>526</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14872,7 +14948,7 @@
         <v>3162</v>
       </c>
       <c r="I66" s="7">
-        <v>2098756</v>
+        <v>2002631</v>
       </c>
       <c r="J66" s="7" t="s">
         <v>30</v>
@@ -14887,7 +14963,7 @@
         <v>3162</v>
       </c>
       <c r="N66" s="7">
-        <v>2098756</v>
+        <v>2002631</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>30</v>
